--- a/Excel Sheet/PCI-Express x16.xlsx
+++ b/Excel Sheet/PCI-Express x16.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20895" windowHeight="10170"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20895" windowHeight="10170" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Signals" sheetId="1" r:id="rId1"/>
+    <sheet name="One Column" sheetId="2" r:id="rId2"/>
+    <sheet name="Sorted Signals" sheetId="3" r:id="rId3"/>
+    <sheet name="Capture Sorted" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'One Column'!$B$2:$C$2</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="160">
   <si>
     <t xml:space="preserve">#  </t>
   </si>
@@ -457,15 +461,81 @@
   </si>
   <si>
     <t>Receiver Lane 0,Differential pair</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Misc.</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Pin Visibility</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>Pin Group</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t>Line</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -498,11 +568,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -812,19 +885,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7">
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2389,24 +2465,5239 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C166"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:3" ht="15.75">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6">
+        <v>85</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39">
+        <v>69</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47">
+        <v>105</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48">
+        <v>109</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49">
+        <v>113</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50">
+        <v>119</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51">
+        <v>123</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52">
+        <v>127</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53">
+        <v>131</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54">
+        <v>136</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55">
+        <v>140</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56">
+        <v>144</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57">
+        <v>148</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58">
+        <v>152</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59">
+        <v>156</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60">
+        <v>160</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61">
+        <v>164</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62">
+        <v>94</v>
+      </c>
+      <c r="C62" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63">
+        <v>97</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64">
+        <v>102</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65">
+        <v>106</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66">
+        <v>110</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67">
+        <v>116</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68">
+        <v>120</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69">
+        <v>124</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70">
+        <v>128</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71">
+        <v>133</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72">
+        <v>137</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73">
+        <v>141</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74">
+        <v>145</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75">
+        <v>149</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76">
+        <v>153</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77">
+        <v>157</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78">
+        <v>161</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79">
+        <v>99</v>
+      </c>
+      <c r="C79" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80">
+        <v>104</v>
+      </c>
+      <c r="C80" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81">
+        <v>143</v>
+      </c>
+      <c r="C81" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82">
+        <v>147</v>
+      </c>
+      <c r="C82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83">
+        <v>151</v>
+      </c>
+      <c r="C83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84">
+        <v>155</v>
+      </c>
+      <c r="C84" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85">
+        <v>159</v>
+      </c>
+      <c r="C85" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86">
+        <v>163</v>
+      </c>
+      <c r="C86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87">
+        <v>108</v>
+      </c>
+      <c r="C87" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88">
+        <v>112</v>
+      </c>
+      <c r="C88" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89">
+        <v>118</v>
+      </c>
+      <c r="C89" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90">
+        <v>122</v>
+      </c>
+      <c r="C90" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91">
+        <v>126</v>
+      </c>
+      <c r="C91" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92">
+        <v>130</v>
+      </c>
+      <c r="C92" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93">
+        <v>135</v>
+      </c>
+      <c r="C93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94">
+        <v>139</v>
+      </c>
+      <c r="C94" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95">
+        <v>98</v>
+      </c>
+      <c r="C95" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96">
+        <v>103</v>
+      </c>
+      <c r="C96" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97">
+        <v>142</v>
+      </c>
+      <c r="C97" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98">
+        <v>146</v>
+      </c>
+      <c r="C98" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99">
+        <v>150</v>
+      </c>
+      <c r="C99" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100">
+        <v>154</v>
+      </c>
+      <c r="C100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101">
+        <v>158</v>
+      </c>
+      <c r="C101" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102">
+        <v>162</v>
+      </c>
+      <c r="C102" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103">
+        <v>107</v>
+      </c>
+      <c r="C103" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104">
+        <v>111</v>
+      </c>
+      <c r="C104" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105">
+        <v>117</v>
+      </c>
+      <c r="C105" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106">
+        <v>121</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107">
+        <v>125</v>
+      </c>
+      <c r="C107" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108">
+        <v>129</v>
+      </c>
+      <c r="C108" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109">
+        <v>134</v>
+      </c>
+      <c r="C109" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110">
+        <v>138</v>
+      </c>
+      <c r="C110" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111">
+        <v>15</v>
+      </c>
+      <c r="C111" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112">
+        <v>20</v>
+      </c>
+      <c r="C112" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113">
+        <v>59</v>
+      </c>
+      <c r="C113" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114">
+        <v>63</v>
+      </c>
+      <c r="C114" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115">
+        <v>67</v>
+      </c>
+      <c r="C115" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116">
+        <v>71</v>
+      </c>
+      <c r="C116" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117">
+        <v>75</v>
+      </c>
+      <c r="C117" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118">
+        <v>79</v>
+      </c>
+      <c r="C118" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119">
+        <v>24</v>
+      </c>
+      <c r="C119" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120">
+        <v>28</v>
+      </c>
+      <c r="C120" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121">
+        <v>34</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122">
+        <v>38</v>
+      </c>
+      <c r="C122" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123">
+        <v>42</v>
+      </c>
+      <c r="C123" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124">
+        <v>46</v>
+      </c>
+      <c r="C124" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125">
+        <v>51</v>
+      </c>
+      <c r="C125" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126">
+        <v>55</v>
+      </c>
+      <c r="C126" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="B127">
+        <v>14</v>
+      </c>
+      <c r="C127" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="B128">
+        <v>19</v>
+      </c>
+      <c r="C128" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="B129">
+        <v>58</v>
+      </c>
+      <c r="C129" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130">
+        <v>62</v>
+      </c>
+      <c r="C130" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="B131">
+        <v>66</v>
+      </c>
+      <c r="C131" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3">
+      <c r="B132">
+        <v>70</v>
+      </c>
+      <c r="C132" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3">
+      <c r="B133">
+        <v>74</v>
+      </c>
+      <c r="C133" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="B134">
+        <v>78</v>
+      </c>
+      <c r="C134" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3">
+      <c r="B135">
+        <v>23</v>
+      </c>
+      <c r="C135" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3">
+      <c r="B136">
+        <v>27</v>
+      </c>
+      <c r="C136" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3">
+      <c r="B137">
+        <v>33</v>
+      </c>
+      <c r="C137" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3">
+      <c r="B138">
+        <v>37</v>
+      </c>
+      <c r="C138" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3">
+      <c r="B139">
+        <v>41</v>
+      </c>
+      <c r="C139" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3">
+      <c r="B140">
+        <v>45</v>
+      </c>
+      <c r="C140" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3">
+      <c r="B141">
+        <v>50</v>
+      </c>
+      <c r="C141" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3">
+      <c r="B142">
+        <v>54</v>
+      </c>
+      <c r="C142" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3">
+      <c r="B143">
+        <v>9</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3">
+      <c r="B144">
+        <v>87</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3">
+      <c r="B145">
+        <v>88</v>
+      </c>
+      <c r="C145" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146">
+        <v>89</v>
+      </c>
+      <c r="C146" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3">
+      <c r="B147">
+        <v>90</v>
+      </c>
+      <c r="C147" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3">
+      <c r="B148">
+        <v>83</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3">
+      <c r="B149">
+        <v>17</v>
+      </c>
+      <c r="C149" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3">
+      <c r="B150">
+        <v>31</v>
+      </c>
+      <c r="C150" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3">
+      <c r="B151">
+        <v>48</v>
+      </c>
+      <c r="C151" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3">
+      <c r="B152">
+        <v>81</v>
+      </c>
+      <c r="C152" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3">
+      <c r="B153">
+        <v>93</v>
+      </c>
+      <c r="C153" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3">
+      <c r="B154">
+        <v>96</v>
+      </c>
+      <c r="C154" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3">
+      <c r="B155">
+        <v>95</v>
+      </c>
+      <c r="C155" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3">
+      <c r="B156">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3">
+      <c r="B157">
+        <v>30</v>
+      </c>
+      <c r="C157" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3">
+      <c r="B158">
+        <v>101</v>
+      </c>
+      <c r="C158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3">
+      <c r="B159">
+        <v>114</v>
+      </c>
+      <c r="C159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3">
+      <c r="B160">
+        <v>115</v>
+      </c>
+      <c r="C160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="B161">
+        <v>132</v>
+      </c>
+      <c r="C161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="B162">
+        <v>12</v>
+      </c>
+      <c r="C162" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3">
+      <c r="B163">
+        <v>82</v>
+      </c>
+      <c r="C163" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165">
+        <v>6</v>
+      </c>
+      <c r="C165" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3">
+      <c r="B166">
+        <v>11</v>
+      </c>
+      <c r="C166" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:C2">
+    <sortState ref="B3:C166">
+      <sortCondition ref="C2"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:L71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:12" ht="18.75">
+      <c r="B2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15.75">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>99</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>87</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5">
+        <v>104</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>88</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>108</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>89</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7">
+        <v>112</v>
+      </c>
+      <c r="L7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>90</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8">
+        <v>118</v>
+      </c>
+      <c r="L8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>83</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <v>122</v>
+      </c>
+      <c r="L9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10">
+        <v>126</v>
+      </c>
+      <c r="L10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>31</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="E12">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>48</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="E13">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>81</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="E14">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>93</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14">
+        <v>143</v>
+      </c>
+      <c r="L14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="E15">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>96</v>
+      </c>
+      <c r="I15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15">
+        <v>147</v>
+      </c>
+      <c r="L15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="E16">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>95</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12">
+      <c r="E17">
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>155</v>
+      </c>
+      <c r="L17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12">
+      <c r="E18">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12">
+      <c r="E19">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19">
+        <v>101</v>
+      </c>
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12">
+      <c r="E20">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>114</v>
+      </c>
+      <c r="I20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20">
+        <v>98</v>
+      </c>
+      <c r="L20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12">
+      <c r="E21">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <v>115</v>
+      </c>
+      <c r="I21" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21">
+        <v>103</v>
+      </c>
+      <c r="L21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12">
+      <c r="E22">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>132</v>
+      </c>
+      <c r="I22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22">
+        <v>107</v>
+      </c>
+      <c r="L22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12">
+      <c r="E23">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23">
+        <v>111</v>
+      </c>
+      <c r="L23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12">
+      <c r="E24">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>82</v>
+      </c>
+      <c r="I24" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24">
+        <v>117</v>
+      </c>
+      <c r="L24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12">
+      <c r="E25">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25">
+        <v>121</v>
+      </c>
+      <c r="L25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12">
+      <c r="E26">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26">
+        <v>125</v>
+      </c>
+      <c r="L26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12">
+      <c r="E27">
+        <v>60</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27">
+        <v>129</v>
+      </c>
+      <c r="L27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12">
+      <c r="E28">
+        <v>61</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28">
+        <v>134</v>
+      </c>
+      <c r="L28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12">
+      <c r="E29">
+        <v>64</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29">
+        <v>138</v>
+      </c>
+      <c r="L29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12">
+      <c r="E30">
+        <v>65</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30">
+        <v>142</v>
+      </c>
+      <c r="L30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12">
+      <c r="E31">
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31">
+        <v>146</v>
+      </c>
+      <c r="L31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12">
+      <c r="E32">
+        <v>69</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32">
+        <v>150</v>
+      </c>
+      <c r="L32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="5:12">
+      <c r="E33">
+        <v>72</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33">
+        <v>154</v>
+      </c>
+      <c r="L33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="5:12">
+      <c r="E34">
+        <v>73</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34">
+        <v>158</v>
+      </c>
+      <c r="L34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="5:12">
+      <c r="E35">
+        <v>76</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35">
+        <v>162</v>
+      </c>
+      <c r="L35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12">
+      <c r="E36">
+        <v>77</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36">
+        <v>15</v>
+      </c>
+      <c r="L36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12">
+      <c r="E37">
+        <v>80</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37">
+        <v>20</v>
+      </c>
+      <c r="L37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12">
+      <c r="E38">
+        <v>86</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38">
+        <v>24</v>
+      </c>
+      <c r="L38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12">
+      <c r="E39">
+        <v>100</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39">
+        <v>28</v>
+      </c>
+      <c r="L39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="5:12">
+      <c r="E40">
+        <v>105</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40">
+        <v>34</v>
+      </c>
+      <c r="L40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="5:12">
+      <c r="E41">
+        <v>109</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41">
+        <v>38</v>
+      </c>
+      <c r="L41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="5:12">
+      <c r="E42">
+        <v>113</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42">
+        <v>42</v>
+      </c>
+      <c r="L42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="5:12">
+      <c r="E43">
+        <v>119</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43">
+        <v>46</v>
+      </c>
+      <c r="L43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="5:12">
+      <c r="E44">
+        <v>123</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44">
+        <v>51</v>
+      </c>
+      <c r="L44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="5:12">
+      <c r="E45">
+        <v>127</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45">
+        <v>55</v>
+      </c>
+      <c r="L45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12">
+      <c r="E46">
+        <v>131</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46">
+        <v>59</v>
+      </c>
+      <c r="L46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="5:12">
+      <c r="E47">
+        <v>136</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47">
+        <v>63</v>
+      </c>
+      <c r="L47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="5:12">
+      <c r="E48">
+        <v>140</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48">
+        <v>67</v>
+      </c>
+      <c r="L48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12">
+      <c r="E49">
+        <v>144</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49">
+        <v>71</v>
+      </c>
+      <c r="L49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12">
+      <c r="E50">
+        <v>148</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50">
+        <v>75</v>
+      </c>
+      <c r="L50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12">
+      <c r="E51">
+        <v>152</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51">
+        <v>79</v>
+      </c>
+      <c r="L51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="5:12">
+      <c r="E52">
+        <v>156</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52">
+        <v>14</v>
+      </c>
+      <c r="L52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12">
+      <c r="E53">
+        <v>160</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53">
+        <v>19</v>
+      </c>
+      <c r="L53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="5:12">
+      <c r="E54">
+        <v>164</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54">
+        <v>23</v>
+      </c>
+      <c r="L54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12">
+      <c r="E55">
+        <v>94</v>
+      </c>
+      <c r="F55" t="s">
+        <v>39</v>
+      </c>
+      <c r="K55">
+        <v>27</v>
+      </c>
+      <c r="L55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="5:12">
+      <c r="E56">
+        <v>97</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56">
+        <v>33</v>
+      </c>
+      <c r="L56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="5:12">
+      <c r="E57">
+        <v>102</v>
+      </c>
+      <c r="F57" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57">
+        <v>37</v>
+      </c>
+      <c r="L57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12">
+      <c r="E58">
+        <v>106</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58">
+        <v>41</v>
+      </c>
+      <c r="L58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="5:12">
+      <c r="E59">
+        <v>110</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59">
+        <v>45</v>
+      </c>
+      <c r="L59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="5:12">
+      <c r="E60">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60">
+        <v>50</v>
+      </c>
+      <c r="L60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="5:12">
+      <c r="E61">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61">
+        <v>54</v>
+      </c>
+      <c r="L61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="5:12">
+      <c r="E62">
+        <v>124</v>
+      </c>
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62">
+        <v>58</v>
+      </c>
+      <c r="L62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="5:12">
+      <c r="E63">
+        <v>128</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63">
+        <v>62</v>
+      </c>
+      <c r="L63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="5:12">
+      <c r="E64">
+        <v>133</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64">
+        <v>66</v>
+      </c>
+      <c r="L64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="5:12">
+      <c r="E65">
+        <v>137</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65">
+        <v>70</v>
+      </c>
+      <c r="L65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="5:12">
+      <c r="E66">
+        <v>141</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66">
+        <v>74</v>
+      </c>
+      <c r="L66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="5:12">
+      <c r="E67">
+        <v>145</v>
+      </c>
+      <c r="F67" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67">
+        <v>78</v>
+      </c>
+      <c r="L67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="5:12">
+      <c r="E68">
+        <v>149</v>
+      </c>
+      <c r="F68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="5:12">
+      <c r="E69">
+        <v>153</v>
+      </c>
+      <c r="F69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="5:12">
+      <c r="E70">
+        <v>157</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="5:12">
+      <c r="E71">
+        <v>161</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:AJ71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:36" ht="18.75">
+      <c r="B2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="2:36">
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N3" t="s">
+        <v>153</v>
+      </c>
+      <c r="O3" t="s">
+        <v>154</v>
+      </c>
+      <c r="P3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>156</v>
+      </c>
+      <c r="R3" t="s">
+        <v>157</v>
+      </c>
+      <c r="T3" t="s">
+        <v>150</v>
+      </c>
+      <c r="U3" t="s">
+        <v>151</v>
+      </c>
+      <c r="V3" t="s">
+        <v>152</v>
+      </c>
+      <c r="W3" t="s">
+        <v>153</v>
+      </c>
+      <c r="X3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>159</v>
+      </c>
+      <c r="T4">
+        <v>9</v>
+      </c>
+      <c r="U4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" t="s">
+        <v>158</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC4">
+        <v>99</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>158</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>159</v>
+      </c>
+      <c r="T5">
+        <v>87</v>
+      </c>
+      <c r="U5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" t="s">
+        <v>158</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC5">
+        <v>104</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36">
+      <c r="B6">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K6">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
+        <v>158</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>159</v>
+      </c>
+      <c r="T6">
+        <v>88</v>
+      </c>
+      <c r="U6" t="s">
+        <v>20</v>
+      </c>
+      <c r="V6" t="s">
+        <v>158</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="X6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC6">
+        <v>108</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF6">
+        <v>3</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36">
+      <c r="B7">
+        <v>85</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>158</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>159</v>
+      </c>
+      <c r="T7">
+        <v>89</v>
+      </c>
+      <c r="U7" t="s">
+        <v>22</v>
+      </c>
+      <c r="V7" t="s">
+        <v>158</v>
+      </c>
+      <c r="W7">
+        <v>4</v>
+      </c>
+      <c r="X7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC7">
+        <v>112</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF7">
+        <v>4</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36">
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K8">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s">
+        <v>158</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8" t="s">
+        <v>159</v>
+      </c>
+      <c r="T8">
+        <v>90</v>
+      </c>
+      <c r="U8" t="s">
+        <v>26</v>
+      </c>
+      <c r="V8" t="s">
+        <v>158</v>
+      </c>
+      <c r="W8">
+        <v>5</v>
+      </c>
+      <c r="X8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC8">
+        <v>118</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF8">
+        <v>5</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36">
+      <c r="B9">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K9">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" t="s">
+        <v>158</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9" t="s">
+        <v>159</v>
+      </c>
+      <c r="T9">
+        <v>83</v>
+      </c>
+      <c r="U9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V9" t="s">
+        <v>158</v>
+      </c>
+      <c r="W9">
+        <v>6</v>
+      </c>
+      <c r="X9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC9">
+        <v>122</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF9">
+        <v>6</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36">
+      <c r="B10">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>159</v>
+      </c>
+      <c r="K10">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" t="s">
+        <v>158</v>
+      </c>
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10" t="s">
+        <v>159</v>
+      </c>
+      <c r="T10">
+        <v>17</v>
+      </c>
+      <c r="U10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V10" t="s">
+        <v>158</v>
+      </c>
+      <c r="W10">
+        <v>7</v>
+      </c>
+      <c r="X10" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC10">
+        <v>126</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF10">
+        <v>7</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>159</v>
+      </c>
+      <c r="K11">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" t="s">
+        <v>158</v>
+      </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+      <c r="O11" t="s">
+        <v>159</v>
+      </c>
+      <c r="T11">
+        <v>31</v>
+      </c>
+      <c r="U11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V11" t="s">
+        <v>158</v>
+      </c>
+      <c r="W11">
+        <v>8</v>
+      </c>
+      <c r="X11" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC11">
+        <v>130</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF11">
+        <v>8</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36">
+      <c r="K12">
+        <v>26</v>
+      </c>
+      <c r="L12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" t="s">
+        <v>158</v>
+      </c>
+      <c r="N12">
+        <v>9</v>
+      </c>
+      <c r="O12" t="s">
+        <v>159</v>
+      </c>
+      <c r="T12">
+        <v>48</v>
+      </c>
+      <c r="U12" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12" t="s">
+        <v>158</v>
+      </c>
+      <c r="W12">
+        <v>9</v>
+      </c>
+      <c r="X12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC12">
+        <v>135</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF12">
+        <v>9</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36">
+      <c r="K13">
+        <v>29</v>
+      </c>
+      <c r="L13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" t="s">
+        <v>158</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13" t="s">
+        <v>159</v>
+      </c>
+      <c r="T13">
+        <v>81</v>
+      </c>
+      <c r="U13" t="s">
+        <v>45</v>
+      </c>
+      <c r="V13" t="s">
+        <v>158</v>
+      </c>
+      <c r="W13">
+        <v>10</v>
+      </c>
+      <c r="X13" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC13">
+        <v>139</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF13">
+        <v>10</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36">
+      <c r="K14">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" t="s">
+        <v>158</v>
+      </c>
+      <c r="N14">
+        <v>11</v>
+      </c>
+      <c r="O14" t="s">
+        <v>159</v>
+      </c>
+      <c r="T14">
+        <v>93</v>
+      </c>
+      <c r="U14" t="s">
+        <v>35</v>
+      </c>
+      <c r="V14" t="s">
+        <v>158</v>
+      </c>
+      <c r="W14">
+        <v>11</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC14">
+        <v>143</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF14">
+        <v>11</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36">
+      <c r="K15">
+        <v>35</v>
+      </c>
+      <c r="L15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" t="s">
+        <v>158</v>
+      </c>
+      <c r="N15">
+        <v>12</v>
+      </c>
+      <c r="O15" t="s">
+        <v>159</v>
+      </c>
+      <c r="T15">
+        <v>96</v>
+      </c>
+      <c r="U15" t="s">
+        <v>42</v>
+      </c>
+      <c r="V15" t="s">
+        <v>158</v>
+      </c>
+      <c r="W15">
+        <v>12</v>
+      </c>
+      <c r="X15" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC15">
+        <v>147</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF15">
+        <v>12</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36">
+      <c r="K16">
+        <v>36</v>
+      </c>
+      <c r="L16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" t="s">
+        <v>158</v>
+      </c>
+      <c r="N16">
+        <v>13</v>
+      </c>
+      <c r="O16" t="s">
+        <v>159</v>
+      </c>
+      <c r="T16">
+        <v>95</v>
+      </c>
+      <c r="U16" t="s">
+        <v>40</v>
+      </c>
+      <c r="V16" t="s">
+        <v>158</v>
+      </c>
+      <c r="W16">
+        <v>13</v>
+      </c>
+      <c r="X16" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC16">
+        <v>151</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF16">
+        <v>13</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="11:33">
+      <c r="K17">
+        <v>39</v>
+      </c>
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" t="s">
+        <v>158</v>
+      </c>
+      <c r="N17">
+        <v>14</v>
+      </c>
+      <c r="O17" t="s">
+        <v>159</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17" t="s">
+        <v>9</v>
+      </c>
+      <c r="V17" t="s">
+        <v>158</v>
+      </c>
+      <c r="W17">
+        <v>14</v>
+      </c>
+      <c r="X17" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC17">
+        <v>155</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF17">
+        <v>14</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="11:33">
+      <c r="K18">
+        <v>40</v>
+      </c>
+      <c r="L18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" t="s">
+        <v>158</v>
+      </c>
+      <c r="N18">
+        <v>15</v>
+      </c>
+      <c r="O18" t="s">
+        <v>159</v>
+      </c>
+      <c r="T18">
+        <v>30</v>
+      </c>
+      <c r="U18" t="s">
+        <v>9</v>
+      </c>
+      <c r="V18" t="s">
+        <v>158</v>
+      </c>
+      <c r="W18">
+        <v>15</v>
+      </c>
+      <c r="X18" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC18">
+        <v>159</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF18">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="11:33">
+      <c r="K19">
+        <v>43</v>
+      </c>
+      <c r="L19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" t="s">
+        <v>158</v>
+      </c>
+      <c r="N19">
+        <v>16</v>
+      </c>
+      <c r="O19" t="s">
+        <v>159</v>
+      </c>
+      <c r="T19">
+        <v>101</v>
+      </c>
+      <c r="U19" t="s">
+        <v>9</v>
+      </c>
+      <c r="V19" t="s">
+        <v>158</v>
+      </c>
+      <c r="W19">
+        <v>16</v>
+      </c>
+      <c r="X19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC19">
+        <v>163</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF19">
+        <v>16</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="11:33">
+      <c r="K20">
+        <v>44</v>
+      </c>
+      <c r="L20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" t="s">
+        <v>158</v>
+      </c>
+      <c r="N20">
+        <v>17</v>
+      </c>
+      <c r="O20" t="s">
+        <v>159</v>
+      </c>
+      <c r="T20">
+        <v>114</v>
+      </c>
+      <c r="U20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V20" t="s">
+        <v>158</v>
+      </c>
+      <c r="W20">
+        <v>17</v>
+      </c>
+      <c r="X20" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC20">
+        <v>98</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF20">
+        <v>17</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="11:33">
+      <c r="K21">
+        <v>47</v>
+      </c>
+      <c r="L21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" t="s">
+        <v>158</v>
+      </c>
+      <c r="N21">
+        <v>18</v>
+      </c>
+      <c r="O21" t="s">
+        <v>159</v>
+      </c>
+      <c r="T21">
+        <v>115</v>
+      </c>
+      <c r="U21" t="s">
+        <v>9</v>
+      </c>
+      <c r="V21" t="s">
+        <v>158</v>
+      </c>
+      <c r="W21">
+        <v>18</v>
+      </c>
+      <c r="X21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC21">
+        <v>103</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF21">
+        <v>18</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="11:33">
+      <c r="K22">
+        <v>49</v>
+      </c>
+      <c r="L22" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" t="s">
+        <v>158</v>
+      </c>
+      <c r="N22">
+        <v>19</v>
+      </c>
+      <c r="O22" t="s">
+        <v>159</v>
+      </c>
+      <c r="T22">
+        <v>132</v>
+      </c>
+      <c r="U22" t="s">
+        <v>9</v>
+      </c>
+      <c r="V22" t="s">
+        <v>158</v>
+      </c>
+      <c r="W22">
+        <v>19</v>
+      </c>
+      <c r="X22" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC22">
+        <v>107</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF22">
+        <v>19</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="11:33">
+      <c r="K23">
+        <v>52</v>
+      </c>
+      <c r="L23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" t="s">
+        <v>158</v>
+      </c>
+      <c r="N23">
+        <v>20</v>
+      </c>
+      <c r="O23" t="s">
+        <v>159</v>
+      </c>
+      <c r="T23">
+        <v>12</v>
+      </c>
+      <c r="U23" t="s">
+        <v>37</v>
+      </c>
+      <c r="V23" t="s">
+        <v>158</v>
+      </c>
+      <c r="W23">
+        <v>20</v>
+      </c>
+      <c r="X23" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC23">
+        <v>111</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF23">
+        <v>20</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="11:33">
+      <c r="K24">
+        <v>53</v>
+      </c>
+      <c r="L24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" t="s">
+        <v>158</v>
+      </c>
+      <c r="N24">
+        <v>21</v>
+      </c>
+      <c r="O24" t="s">
+        <v>159</v>
+      </c>
+      <c r="T24">
+        <v>82</v>
+      </c>
+      <c r="U24" t="s">
+        <v>111</v>
+      </c>
+      <c r="V24" t="s">
+        <v>158</v>
+      </c>
+      <c r="W24">
+        <v>21</v>
+      </c>
+      <c r="X24" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC24">
+        <v>117</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF24">
+        <v>21</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="11:33">
+      <c r="K25">
+        <v>56</v>
+      </c>
+      <c r="L25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" t="s">
+        <v>158</v>
+      </c>
+      <c r="N25">
+        <v>22</v>
+      </c>
+      <c r="O25" t="s">
+        <v>159</v>
+      </c>
+      <c r="T25">
+        <v>5</v>
+      </c>
+      <c r="U25" t="s">
+        <v>14</v>
+      </c>
+      <c r="V25" t="s">
+        <v>158</v>
+      </c>
+      <c r="W25">
+        <v>22</v>
+      </c>
+      <c r="X25" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC25">
+        <v>121</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF25">
+        <v>22</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="11:33">
+      <c r="K26">
+        <v>57</v>
+      </c>
+      <c r="L26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" t="s">
+        <v>158</v>
+      </c>
+      <c r="N26">
+        <v>23</v>
+      </c>
+      <c r="O26" t="s">
+        <v>159</v>
+      </c>
+      <c r="T26">
+        <v>6</v>
+      </c>
+      <c r="U26" t="s">
+        <v>18</v>
+      </c>
+      <c r="V26" t="s">
+        <v>158</v>
+      </c>
+      <c r="W26">
+        <v>23</v>
+      </c>
+      <c r="X26" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC26">
+        <v>125</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF26">
+        <v>23</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="11:33">
+      <c r="K27">
+        <v>60</v>
+      </c>
+      <c r="L27" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" t="s">
+        <v>158</v>
+      </c>
+      <c r="N27">
+        <v>24</v>
+      </c>
+      <c r="O27" t="s">
+        <v>159</v>
+      </c>
+      <c r="T27">
+        <v>11</v>
+      </c>
+      <c r="U27" t="s">
+        <v>33</v>
+      </c>
+      <c r="V27" t="s">
+        <v>158</v>
+      </c>
+      <c r="W27">
+        <v>24</v>
+      </c>
+      <c r="X27" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC27">
+        <v>129</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF27">
+        <v>24</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="11:33">
+      <c r="K28">
+        <v>61</v>
+      </c>
+      <c r="L28" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" t="s">
+        <v>158</v>
+      </c>
+      <c r="N28">
+        <v>25</v>
+      </c>
+      <c r="O28" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC28">
+        <v>134</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF28">
+        <v>25</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="11:33">
+      <c r="K29">
+        <v>64</v>
+      </c>
+      <c r="L29" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" t="s">
+        <v>158</v>
+      </c>
+      <c r="N29">
+        <v>26</v>
+      </c>
+      <c r="O29" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC29">
+        <v>138</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF29">
+        <v>26</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="11:33">
+      <c r="K30">
+        <v>65</v>
+      </c>
+      <c r="L30" t="s">
+        <v>11</v>
+      </c>
+      <c r="M30" t="s">
+        <v>158</v>
+      </c>
+      <c r="N30">
+        <v>27</v>
+      </c>
+      <c r="O30" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC30">
+        <v>142</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF30">
+        <v>27</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="11:33">
+      <c r="K31">
+        <v>68</v>
+      </c>
+      <c r="L31" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" t="s">
+        <v>158</v>
+      </c>
+      <c r="N31">
+        <v>28</v>
+      </c>
+      <c r="O31" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC31">
+        <v>146</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF31">
+        <v>28</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="11:33">
+      <c r="K32">
+        <v>69</v>
+      </c>
+      <c r="L32" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" t="s">
+        <v>158</v>
+      </c>
+      <c r="N32">
+        <v>29</v>
+      </c>
+      <c r="O32" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC32">
+        <v>150</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF32">
+        <v>29</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="11:33">
+      <c r="K33">
+        <v>72</v>
+      </c>
+      <c r="L33" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" t="s">
+        <v>158</v>
+      </c>
+      <c r="N33">
+        <v>30</v>
+      </c>
+      <c r="O33" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC33">
+        <v>154</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF33">
+        <v>30</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="11:33">
+      <c r="K34">
+        <v>73</v>
+      </c>
+      <c r="L34" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" t="s">
+        <v>158</v>
+      </c>
+      <c r="N34">
+        <v>31</v>
+      </c>
+      <c r="O34" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC34">
+        <v>158</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF34">
+        <v>31</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="11:33">
+      <c r="K35">
+        <v>76</v>
+      </c>
+      <c r="L35" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" t="s">
+        <v>158</v>
+      </c>
+      <c r="N35">
+        <v>32</v>
+      </c>
+      <c r="O35" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC35">
+        <v>162</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF35">
+        <v>32</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="11:33">
+      <c r="K36">
+        <v>77</v>
+      </c>
+      <c r="L36" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" t="s">
+        <v>158</v>
+      </c>
+      <c r="N36">
+        <v>33</v>
+      </c>
+      <c r="O36" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC36">
+        <v>15</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF36">
+        <v>33</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="11:33">
+      <c r="K37">
+        <v>80</v>
+      </c>
+      <c r="L37" t="s">
+        <v>11</v>
+      </c>
+      <c r="M37" t="s">
+        <v>158</v>
+      </c>
+      <c r="N37">
+        <v>34</v>
+      </c>
+      <c r="O37" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC37">
+        <v>20</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF37">
+        <v>34</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="11:33">
+      <c r="K38">
+        <v>86</v>
+      </c>
+      <c r="L38" t="s">
+        <v>11</v>
+      </c>
+      <c r="M38" t="s">
+        <v>158</v>
+      </c>
+      <c r="N38">
+        <v>35</v>
+      </c>
+      <c r="O38" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC38">
+        <v>24</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF38">
+        <v>35</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="11:33">
+      <c r="K39">
+        <v>100</v>
+      </c>
+      <c r="L39" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" t="s">
+        <v>158</v>
+      </c>
+      <c r="N39">
+        <v>36</v>
+      </c>
+      <c r="O39" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC39">
+        <v>28</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF39">
+        <v>36</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="11:33">
+      <c r="K40">
+        <v>105</v>
+      </c>
+      <c r="L40" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" t="s">
+        <v>158</v>
+      </c>
+      <c r="N40">
+        <v>37</v>
+      </c>
+      <c r="O40" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC40">
+        <v>34</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF40">
+        <v>37</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="11:33">
+      <c r="K41">
+        <v>109</v>
+      </c>
+      <c r="L41" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" t="s">
+        <v>158</v>
+      </c>
+      <c r="N41">
+        <v>38</v>
+      </c>
+      <c r="O41" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC41">
+        <v>38</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF41">
+        <v>38</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="11:33">
+      <c r="K42">
+        <v>113</v>
+      </c>
+      <c r="L42" t="s">
+        <v>11</v>
+      </c>
+      <c r="M42" t="s">
+        <v>158</v>
+      </c>
+      <c r="N42">
+        <v>39</v>
+      </c>
+      <c r="O42" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC42">
+        <v>42</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF42">
+        <v>39</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="11:33">
+      <c r="K43">
+        <v>119</v>
+      </c>
+      <c r="L43" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" t="s">
+        <v>158</v>
+      </c>
+      <c r="N43">
+        <v>40</v>
+      </c>
+      <c r="O43" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC43">
+        <v>46</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF43">
+        <v>40</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="11:33">
+      <c r="K44">
+        <v>123</v>
+      </c>
+      <c r="L44" t="s">
+        <v>11</v>
+      </c>
+      <c r="M44" t="s">
+        <v>158</v>
+      </c>
+      <c r="N44">
+        <v>41</v>
+      </c>
+      <c r="O44" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC44">
+        <v>51</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF44">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="11:33">
+      <c r="K45">
+        <v>127</v>
+      </c>
+      <c r="L45" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" t="s">
+        <v>158</v>
+      </c>
+      <c r="N45">
+        <v>42</v>
+      </c>
+      <c r="O45" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC45">
+        <v>55</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF45">
+        <v>42</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="11:33">
+      <c r="K46">
+        <v>131</v>
+      </c>
+      <c r="L46" t="s">
+        <v>11</v>
+      </c>
+      <c r="M46" t="s">
+        <v>158</v>
+      </c>
+      <c r="N46">
+        <v>43</v>
+      </c>
+      <c r="O46" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC46">
+        <v>59</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF46">
+        <v>43</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="11:33">
+      <c r="K47">
+        <v>136</v>
+      </c>
+      <c r="L47" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47" t="s">
+        <v>158</v>
+      </c>
+      <c r="N47">
+        <v>44</v>
+      </c>
+      <c r="O47" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC47">
+        <v>63</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF47">
+        <v>44</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="11:33">
+      <c r="K48">
+        <v>140</v>
+      </c>
+      <c r="L48" t="s">
+        <v>11</v>
+      </c>
+      <c r="M48" t="s">
+        <v>158</v>
+      </c>
+      <c r="N48">
+        <v>45</v>
+      </c>
+      <c r="O48" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC48">
+        <v>67</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF48">
+        <v>45</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="11:33">
+      <c r="K49">
+        <v>144</v>
+      </c>
+      <c r="L49" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" t="s">
+        <v>158</v>
+      </c>
+      <c r="N49">
+        <v>46</v>
+      </c>
+      <c r="O49" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC49">
+        <v>71</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF49">
+        <v>46</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="11:33">
+      <c r="K50">
+        <v>148</v>
+      </c>
+      <c r="L50" t="s">
+        <v>11</v>
+      </c>
+      <c r="M50" t="s">
+        <v>158</v>
+      </c>
+      <c r="N50">
+        <v>47</v>
+      </c>
+      <c r="O50" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC50">
+        <v>75</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF50">
+        <v>47</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="11:33">
+      <c r="K51">
+        <v>152</v>
+      </c>
+      <c r="L51" t="s">
+        <v>11</v>
+      </c>
+      <c r="M51" t="s">
+        <v>158</v>
+      </c>
+      <c r="N51">
+        <v>48</v>
+      </c>
+      <c r="O51" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC51">
+        <v>79</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF51">
+        <v>48</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="11:33">
+      <c r="K52">
+        <v>156</v>
+      </c>
+      <c r="L52" t="s">
+        <v>11</v>
+      </c>
+      <c r="M52" t="s">
+        <v>158</v>
+      </c>
+      <c r="N52">
+        <v>49</v>
+      </c>
+      <c r="O52" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC52">
+        <v>14</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF52">
+        <v>49</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="11:33">
+      <c r="K53">
+        <v>160</v>
+      </c>
+      <c r="L53" t="s">
+        <v>11</v>
+      </c>
+      <c r="M53" t="s">
+        <v>158</v>
+      </c>
+      <c r="N53">
+        <v>50</v>
+      </c>
+      <c r="O53" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC53">
+        <v>19</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF53">
+        <v>50</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="11:33">
+      <c r="K54">
+        <v>164</v>
+      </c>
+      <c r="L54" t="s">
+        <v>11</v>
+      </c>
+      <c r="M54" t="s">
+        <v>158</v>
+      </c>
+      <c r="N54">
+        <v>51</v>
+      </c>
+      <c r="O54" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC54">
+        <v>23</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF54">
+        <v>51</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="11:33">
+      <c r="K55">
+        <v>94</v>
+      </c>
+      <c r="L55" t="s">
+        <v>39</v>
+      </c>
+      <c r="M55" t="s">
+        <v>158</v>
+      </c>
+      <c r="N55">
+        <v>52</v>
+      </c>
+      <c r="O55" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC55">
+        <v>27</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF55">
+        <v>52</v>
+      </c>
+      <c r="AG55" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="11:33">
+      <c r="K56">
+        <v>97</v>
+      </c>
+      <c r="L56" t="s">
+        <v>39</v>
+      </c>
+      <c r="M56" t="s">
+        <v>158</v>
+      </c>
+      <c r="N56">
+        <v>53</v>
+      </c>
+      <c r="O56" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC56">
+        <v>33</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF56">
+        <v>53</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="11:33">
+      <c r="K57">
+        <v>102</v>
+      </c>
+      <c r="L57" t="s">
+        <v>39</v>
+      </c>
+      <c r="M57" t="s">
+        <v>158</v>
+      </c>
+      <c r="N57">
+        <v>54</v>
+      </c>
+      <c r="O57" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC57">
+        <v>37</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF57">
+        <v>54</v>
+      </c>
+      <c r="AG57" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="11:33">
+      <c r="K58">
+        <v>106</v>
+      </c>
+      <c r="L58" t="s">
+        <v>39</v>
+      </c>
+      <c r="M58" t="s">
+        <v>158</v>
+      </c>
+      <c r="N58">
+        <v>55</v>
+      </c>
+      <c r="O58" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC58">
+        <v>41</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF58">
+        <v>55</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="11:33">
+      <c r="K59">
+        <v>110</v>
+      </c>
+      <c r="L59" t="s">
+        <v>39</v>
+      </c>
+      <c r="M59" t="s">
+        <v>158</v>
+      </c>
+      <c r="N59">
+        <v>56</v>
+      </c>
+      <c r="O59" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC59">
+        <v>45</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF59">
+        <v>56</v>
+      </c>
+      <c r="AG59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="11:33">
+      <c r="K60">
+        <v>116</v>
+      </c>
+      <c r="L60" t="s">
+        <v>39</v>
+      </c>
+      <c r="M60" t="s">
+        <v>158</v>
+      </c>
+      <c r="N60">
+        <v>57</v>
+      </c>
+      <c r="O60" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC60">
+        <v>50</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF60">
+        <v>57</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="11:33">
+      <c r="K61">
+        <v>120</v>
+      </c>
+      <c r="L61" t="s">
+        <v>39</v>
+      </c>
+      <c r="M61" t="s">
+        <v>158</v>
+      </c>
+      <c r="N61">
+        <v>58</v>
+      </c>
+      <c r="O61" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC61">
+        <v>54</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF61">
+        <v>58</v>
+      </c>
+      <c r="AG61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="11:33">
+      <c r="K62">
+        <v>124</v>
+      </c>
+      <c r="L62" t="s">
+        <v>39</v>
+      </c>
+      <c r="M62" t="s">
+        <v>158</v>
+      </c>
+      <c r="N62">
+        <v>59</v>
+      </c>
+      <c r="O62" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC62">
+        <v>58</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF62">
+        <v>59</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="11:33">
+      <c r="K63">
+        <v>128</v>
+      </c>
+      <c r="L63" t="s">
+        <v>39</v>
+      </c>
+      <c r="M63" t="s">
+        <v>158</v>
+      </c>
+      <c r="N63">
+        <v>60</v>
+      </c>
+      <c r="O63" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC63">
+        <v>62</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF63">
+        <v>60</v>
+      </c>
+      <c r="AG63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="11:33">
+      <c r="K64">
+        <v>133</v>
+      </c>
+      <c r="L64" t="s">
+        <v>39</v>
+      </c>
+      <c r="M64" t="s">
+        <v>158</v>
+      </c>
+      <c r="N64">
+        <v>61</v>
+      </c>
+      <c r="O64" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC64">
+        <v>66</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF64">
+        <v>61</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="11:33">
+      <c r="K65">
+        <v>137</v>
+      </c>
+      <c r="L65" t="s">
+        <v>39</v>
+      </c>
+      <c r="M65" t="s">
+        <v>158</v>
+      </c>
+      <c r="N65">
+        <v>62</v>
+      </c>
+      <c r="O65" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC65">
+        <v>70</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF65">
+        <v>62</v>
+      </c>
+      <c r="AG65" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="11:33">
+      <c r="K66">
+        <v>141</v>
+      </c>
+      <c r="L66" t="s">
+        <v>39</v>
+      </c>
+      <c r="M66" t="s">
+        <v>158</v>
+      </c>
+      <c r="N66">
+        <v>63</v>
+      </c>
+      <c r="O66" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC66">
+        <v>74</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF66">
+        <v>63</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="11:33">
+      <c r="K67">
+        <v>145</v>
+      </c>
+      <c r="L67" t="s">
+        <v>39</v>
+      </c>
+      <c r="M67" t="s">
+        <v>158</v>
+      </c>
+      <c r="N67">
+        <v>64</v>
+      </c>
+      <c r="O67" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC67">
+        <v>78</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF67">
+        <v>64</v>
+      </c>
+      <c r="AG67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="11:33">
+      <c r="K68">
+        <v>149</v>
+      </c>
+      <c r="L68" t="s">
+        <v>39</v>
+      </c>
+      <c r="M68" t="s">
+        <v>158</v>
+      </c>
+      <c r="N68">
+        <v>65</v>
+      </c>
+      <c r="O68" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="11:33">
+      <c r="K69">
+        <v>153</v>
+      </c>
+      <c r="L69" t="s">
+        <v>39</v>
+      </c>
+      <c r="M69" t="s">
+        <v>158</v>
+      </c>
+      <c r="N69">
+        <v>66</v>
+      </c>
+      <c r="O69" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="11:33">
+      <c r="K70">
+        <v>157</v>
+      </c>
+      <c r="L70" t="s">
+        <v>39</v>
+      </c>
+      <c r="M70" t="s">
+        <v>158</v>
+      </c>
+      <c r="N70">
+        <v>67</v>
+      </c>
+      <c r="O70" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="11:33">
+      <c r="K71">
+        <v>161</v>
+      </c>
+      <c r="L71" t="s">
+        <v>39</v>
+      </c>
+      <c r="M71" t="s">
+        <v>158</v>
+      </c>
+      <c r="N71">
+        <v>68</v>
+      </c>
+      <c r="O71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel Sheet/PCI-Express x16.xlsx
+++ b/Excel Sheet/PCI-Express x16.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20895" windowHeight="10170" activeTab="3"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'One Column'!$B$2:$C$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="246">
   <si>
     <t xml:space="preserve">#  </t>
   </si>
@@ -500,6 +500,264 @@
   </si>
   <si>
     <t>Line</t>
+  </si>
+  <si>
+    <t>+12v _1</t>
+  </si>
+  <si>
+    <t>+12v _2</t>
+  </si>
+  <si>
+    <t>+12v _84</t>
+  </si>
+  <si>
+    <t>+12v _85</t>
+  </si>
+  <si>
+    <t>+3.3v _8</t>
+  </si>
+  <si>
+    <t>+3.3v _91</t>
+  </si>
+  <si>
+    <t>+3.3v _92</t>
+  </si>
+  <si>
+    <t>GND _4</t>
+  </si>
+  <si>
+    <t>GND _7</t>
+  </si>
+  <si>
+    <t>GND _13</t>
+  </si>
+  <si>
+    <t>GND _16</t>
+  </si>
+  <si>
+    <t>GND _18</t>
+  </si>
+  <si>
+    <t>GND _21</t>
+  </si>
+  <si>
+    <t>GND _22</t>
+  </si>
+  <si>
+    <t>GND _25</t>
+  </si>
+  <si>
+    <t>GND _26</t>
+  </si>
+  <si>
+    <t>GND _29</t>
+  </si>
+  <si>
+    <t>GND _32</t>
+  </si>
+  <si>
+    <t>GND _35</t>
+  </si>
+  <si>
+    <t>GND _36</t>
+  </si>
+  <si>
+    <t>GND _39</t>
+  </si>
+  <si>
+    <t>GND _40</t>
+  </si>
+  <si>
+    <t>GND _43</t>
+  </si>
+  <si>
+    <t>GND _44</t>
+  </si>
+  <si>
+    <t>GND _47</t>
+  </si>
+  <si>
+    <t>GND _49</t>
+  </si>
+  <si>
+    <t>GND _52</t>
+  </si>
+  <si>
+    <t>GND _53</t>
+  </si>
+  <si>
+    <t>GND _56</t>
+  </si>
+  <si>
+    <t>GND _57</t>
+  </si>
+  <si>
+    <t>GND _60</t>
+  </si>
+  <si>
+    <t>GND _61</t>
+  </si>
+  <si>
+    <t>GND _64</t>
+  </si>
+  <si>
+    <t>GND _65</t>
+  </si>
+  <si>
+    <t>GND _68</t>
+  </si>
+  <si>
+    <t>GND _69</t>
+  </si>
+  <si>
+    <t>GND _72</t>
+  </si>
+  <si>
+    <t>GND _73</t>
+  </si>
+  <si>
+    <t>GND _76</t>
+  </si>
+  <si>
+    <t>GND _77</t>
+  </si>
+  <si>
+    <t>GND _80</t>
+  </si>
+  <si>
+    <t>GND _86</t>
+  </si>
+  <si>
+    <t>GND _100</t>
+  </si>
+  <si>
+    <t>GND _105</t>
+  </si>
+  <si>
+    <t>GND _109</t>
+  </si>
+  <si>
+    <t>GND _113</t>
+  </si>
+  <si>
+    <t>GND _119</t>
+  </si>
+  <si>
+    <t>GND _123</t>
+  </si>
+  <si>
+    <t>GND _127</t>
+  </si>
+  <si>
+    <t>GND _131</t>
+  </si>
+  <si>
+    <t>GND _136</t>
+  </si>
+  <si>
+    <t>GND _140</t>
+  </si>
+  <si>
+    <t>GND _144</t>
+  </si>
+  <si>
+    <t>GND _148</t>
+  </si>
+  <si>
+    <t>GND _152</t>
+  </si>
+  <si>
+    <t>GND _156</t>
+  </si>
+  <si>
+    <t>GND _160</t>
+  </si>
+  <si>
+    <t>GND _164</t>
+  </si>
+  <si>
+    <t>GND  _94</t>
+  </si>
+  <si>
+    <t>GND  _97</t>
+  </si>
+  <si>
+    <t>GND  _102</t>
+  </si>
+  <si>
+    <t>GND  _106</t>
+  </si>
+  <si>
+    <t>GND  _110</t>
+  </si>
+  <si>
+    <t>GND  _116</t>
+  </si>
+  <si>
+    <t>GND  _120</t>
+  </si>
+  <si>
+    <t>GND  _124</t>
+  </si>
+  <si>
+    <t>GND  _128</t>
+  </si>
+  <si>
+    <t>GND  _133</t>
+  </si>
+  <si>
+    <t>GND  _137</t>
+  </si>
+  <si>
+    <t>GND  _141</t>
+  </si>
+  <si>
+    <t>GND  _145</t>
+  </si>
+  <si>
+    <t>GND  _149</t>
+  </si>
+  <si>
+    <t>GND  _153</t>
+  </si>
+  <si>
+    <t>GND  _157</t>
+  </si>
+  <si>
+    <t>GND  _161</t>
+  </si>
+  <si>
+    <t>RSVD _3</t>
+  </si>
+  <si>
+    <t>RSVD _30</t>
+  </si>
+  <si>
+    <t>RSVD _101</t>
+  </si>
+  <si>
+    <t>RSVD _114</t>
+  </si>
+  <si>
+    <t>RSVD _115</t>
+  </si>
+  <si>
+    <t>RSVD _132</t>
+  </si>
+  <si>
+    <t>RSVD  _12</t>
+  </si>
+  <si>
+    <t>PRSNT#2 _17</t>
+  </si>
+  <si>
+    <t>PRSNT#2 _31</t>
+  </si>
+  <si>
+    <t>PRSNT#2 _48</t>
+  </si>
+  <si>
+    <t>PRSNT#2 _81</t>
   </si>
 </sst>
 </file>
@@ -570,12 +828,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,22 +1143,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1125,14 +1383,14 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16">
@@ -2474,10 +2732,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:3" ht="15.75">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3814,42 +4072,42 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:12" ht="18.75">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="15.75">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4982,23 +5240,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AJ71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" topLeftCell="P33" workbookViewId="0">
+      <selection activeCell="AG67" sqref="AC4:AG67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:36" ht="18.75">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="1" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5105,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
         <v>158</v>
@@ -5120,7 +5378,7 @@
         <v>4</v>
       </c>
       <c r="L4" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="M4" t="s">
         <v>158</v>
@@ -5167,7 +5425,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
         <v>158</v>
@@ -5182,7 +5440,7 @@
         <v>7</v>
       </c>
       <c r="L5" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="M5" t="s">
         <v>158</v>
@@ -5229,7 +5487,7 @@
         <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
         <v>158</v>
@@ -5244,7 +5502,7 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="M6" t="s">
         <v>158</v>
@@ -5291,7 +5549,7 @@
         <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="D7" t="s">
         <v>158</v>
@@ -5306,7 +5564,7 @@
         <v>16</v>
       </c>
       <c r="L7" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="M7" t="s">
         <v>158</v>
@@ -5353,7 +5611,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="D8" t="s">
         <v>158</v>
@@ -5368,7 +5626,7 @@
         <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="M8" t="s">
         <v>158</v>
@@ -5415,7 +5673,7 @@
         <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="D9" t="s">
         <v>158</v>
@@ -5430,7 +5688,7 @@
         <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="M9" t="s">
         <v>158</v>
@@ -5477,7 +5735,7 @@
         <v>92</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
         <v>158</v>
@@ -5492,7 +5750,7 @@
         <v>22</v>
       </c>
       <c r="L10" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="M10" t="s">
         <v>158</v>
@@ -5507,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="U10" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="V10" t="s">
         <v>158</v>
@@ -5554,7 +5812,7 @@
         <v>25</v>
       </c>
       <c r="L11" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="M11" t="s">
         <v>158</v>
@@ -5569,7 +5827,7 @@
         <v>31</v>
       </c>
       <c r="U11" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="V11" t="s">
         <v>158</v>
@@ -5601,7 +5859,7 @@
         <v>26</v>
       </c>
       <c r="L12" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="M12" t="s">
         <v>158</v>
@@ -5616,7 +5874,7 @@
         <v>48</v>
       </c>
       <c r="U12" t="s">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="V12" t="s">
         <v>158</v>
@@ -5648,7 +5906,7 @@
         <v>29</v>
       </c>
       <c r="L13" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="M13" t="s">
         <v>158</v>
@@ -5663,7 +5921,7 @@
         <v>81</v>
       </c>
       <c r="U13" t="s">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="V13" t="s">
         <v>158</v>
@@ -5695,7 +5953,7 @@
         <v>32</v>
       </c>
       <c r="L14" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="M14" t="s">
         <v>158</v>
@@ -5742,7 +6000,7 @@
         <v>35</v>
       </c>
       <c r="L15" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="M15" t="s">
         <v>158</v>
@@ -5789,7 +6047,7 @@
         <v>36</v>
       </c>
       <c r="L16" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s">
         <v>158</v>
@@ -5836,7 +6094,7 @@
         <v>39</v>
       </c>
       <c r="L17" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s">
         <v>158</v>
@@ -5851,7 +6109,7 @@
         <v>3</v>
       </c>
       <c r="U17" t="s">
-        <v>9</v>
+        <v>235</v>
       </c>
       <c r="V17" t="s">
         <v>158</v>
@@ -5883,7 +6141,7 @@
         <v>40</v>
       </c>
       <c r="L18" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="M18" t="s">
         <v>158</v>
@@ -5898,7 +6156,7 @@
         <v>30</v>
       </c>
       <c r="U18" t="s">
-        <v>9</v>
+        <v>236</v>
       </c>
       <c r="V18" t="s">
         <v>158</v>
@@ -5930,7 +6188,7 @@
         <v>43</v>
       </c>
       <c r="L19" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="M19" t="s">
         <v>158</v>
@@ -5945,7 +6203,7 @@
         <v>101</v>
       </c>
       <c r="U19" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
       <c r="V19" t="s">
         <v>158</v>
@@ -5977,7 +6235,7 @@
         <v>44</v>
       </c>
       <c r="L20" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="M20" t="s">
         <v>158</v>
@@ -5992,7 +6250,7 @@
         <v>114</v>
       </c>
       <c r="U20" t="s">
-        <v>9</v>
+        <v>238</v>
       </c>
       <c r="V20" t="s">
         <v>158</v>
@@ -6024,7 +6282,7 @@
         <v>47</v>
       </c>
       <c r="L21" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="M21" t="s">
         <v>158</v>
@@ -6039,7 +6297,7 @@
         <v>115</v>
       </c>
       <c r="U21" t="s">
-        <v>9</v>
+        <v>239</v>
       </c>
       <c r="V21" t="s">
         <v>158</v>
@@ -6071,7 +6329,7 @@
         <v>49</v>
       </c>
       <c r="L22" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="M22" t="s">
         <v>158</v>
@@ -6086,7 +6344,7 @@
         <v>132</v>
       </c>
       <c r="U22" t="s">
-        <v>9</v>
+        <v>240</v>
       </c>
       <c r="V22" t="s">
         <v>158</v>
@@ -6118,7 +6376,7 @@
         <v>52</v>
       </c>
       <c r="L23" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="M23" t="s">
         <v>158</v>
@@ -6133,7 +6391,7 @@
         <v>12</v>
       </c>
       <c r="U23" t="s">
-        <v>37</v>
+        <v>241</v>
       </c>
       <c r="V23" t="s">
         <v>158</v>
@@ -6165,7 +6423,7 @@
         <v>53</v>
       </c>
       <c r="L24" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -6212,7 +6470,7 @@
         <v>56</v>
       </c>
       <c r="L25" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="M25" t="s">
         <v>158</v>
@@ -6259,7 +6517,7 @@
         <v>57</v>
       </c>
       <c r="L26" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="M26" t="s">
         <v>158</v>
@@ -6306,7 +6564,7 @@
         <v>60</v>
       </c>
       <c r="L27" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="M27" t="s">
         <v>158</v>
@@ -6353,7 +6611,7 @@
         <v>61</v>
       </c>
       <c r="L28" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="M28" t="s">
         <v>158</v>
@@ -6385,7 +6643,7 @@
         <v>64</v>
       </c>
       <c r="L29" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="M29" t="s">
         <v>158</v>
@@ -6417,7 +6675,7 @@
         <v>65</v>
       </c>
       <c r="L30" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="M30" t="s">
         <v>158</v>
@@ -6449,7 +6707,7 @@
         <v>68</v>
       </c>
       <c r="L31" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="M31" t="s">
         <v>158</v>
@@ -6481,7 +6739,7 @@
         <v>69</v>
       </c>
       <c r="L32" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="M32" t="s">
         <v>158</v>
@@ -6513,7 +6771,7 @@
         <v>72</v>
       </c>
       <c r="L33" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="M33" t="s">
         <v>158</v>
@@ -6545,7 +6803,7 @@
         <v>73</v>
       </c>
       <c r="L34" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="M34" t="s">
         <v>158</v>
@@ -6577,7 +6835,7 @@
         <v>76</v>
       </c>
       <c r="L35" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="M35" t="s">
         <v>158</v>
@@ -6609,7 +6867,7 @@
         <v>77</v>
       </c>
       <c r="L36" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="M36" t="s">
         <v>158</v>
@@ -6641,7 +6899,7 @@
         <v>80</v>
       </c>
       <c r="L37" t="s">
-        <v>11</v>
+        <v>200</v>
       </c>
       <c r="M37" t="s">
         <v>158</v>
@@ -6673,7 +6931,7 @@
         <v>86</v>
       </c>
       <c r="L38" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="M38" t="s">
         <v>158</v>
@@ -6705,7 +6963,7 @@
         <v>100</v>
       </c>
       <c r="L39" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="M39" t="s">
         <v>158</v>
@@ -6737,7 +6995,7 @@
         <v>105</v>
       </c>
       <c r="L40" t="s">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="M40" t="s">
         <v>158</v>
@@ -6769,7 +7027,7 @@
         <v>109</v>
       </c>
       <c r="L41" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="M41" t="s">
         <v>158</v>
@@ -6801,7 +7059,7 @@
         <v>113</v>
       </c>
       <c r="L42" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="M42" t="s">
         <v>158</v>
@@ -6833,7 +7091,7 @@
         <v>119</v>
       </c>
       <c r="L43" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="M43" t="s">
         <v>158</v>
@@ -6865,7 +7123,7 @@
         <v>123</v>
       </c>
       <c r="L44" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="M44" t="s">
         <v>158</v>
@@ -6897,7 +7155,7 @@
         <v>127</v>
       </c>
       <c r="L45" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="M45" t="s">
         <v>158</v>
@@ -6929,7 +7187,7 @@
         <v>131</v>
       </c>
       <c r="L46" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="M46" t="s">
         <v>158</v>
@@ -6961,7 +7219,7 @@
         <v>136</v>
       </c>
       <c r="L47" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="M47" t="s">
         <v>158</v>
@@ -6993,7 +7251,7 @@
         <v>140</v>
       </c>
       <c r="L48" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="M48" t="s">
         <v>158</v>
@@ -7025,7 +7283,7 @@
         <v>144</v>
       </c>
       <c r="L49" t="s">
-        <v>11</v>
+        <v>212</v>
       </c>
       <c r="M49" t="s">
         <v>158</v>
@@ -7057,7 +7315,7 @@
         <v>148</v>
       </c>
       <c r="L50" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="M50" t="s">
         <v>158</v>
@@ -7089,7 +7347,7 @@
         <v>152</v>
       </c>
       <c r="L51" t="s">
-        <v>11</v>
+        <v>214</v>
       </c>
       <c r="M51" t="s">
         <v>158</v>
@@ -7121,7 +7379,7 @@
         <v>156</v>
       </c>
       <c r="L52" t="s">
-        <v>11</v>
+        <v>215</v>
       </c>
       <c r="M52" t="s">
         <v>158</v>
@@ -7153,7 +7411,7 @@
         <v>160</v>
       </c>
       <c r="L53" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="M53" t="s">
         <v>158</v>
@@ -7185,7 +7443,7 @@
         <v>164</v>
       </c>
       <c r="L54" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="M54" t="s">
         <v>158</v>
@@ -7217,7 +7475,7 @@
         <v>94</v>
       </c>
       <c r="L55" t="s">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="M55" t="s">
         <v>158</v>
@@ -7249,7 +7507,7 @@
         <v>97</v>
       </c>
       <c r="L56" t="s">
-        <v>39</v>
+        <v>219</v>
       </c>
       <c r="M56" t="s">
         <v>158</v>
@@ -7281,7 +7539,7 @@
         <v>102</v>
       </c>
       <c r="L57" t="s">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="M57" t="s">
         <v>158</v>
@@ -7313,7 +7571,7 @@
         <v>106</v>
       </c>
       <c r="L58" t="s">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="M58" t="s">
         <v>158</v>
@@ -7345,7 +7603,7 @@
         <v>110</v>
       </c>
       <c r="L59" t="s">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="M59" t="s">
         <v>158</v>
@@ -7377,7 +7635,7 @@
         <v>116</v>
       </c>
       <c r="L60" t="s">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="M60" t="s">
         <v>158</v>
@@ -7409,7 +7667,7 @@
         <v>120</v>
       </c>
       <c r="L61" t="s">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="M61" t="s">
         <v>158</v>
@@ -7441,7 +7699,7 @@
         <v>124</v>
       </c>
       <c r="L62" t="s">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="M62" t="s">
         <v>158</v>
@@ -7473,7 +7731,7 @@
         <v>128</v>
       </c>
       <c r="L63" t="s">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c r="M63" t="s">
         <v>158</v>
@@ -7505,7 +7763,7 @@
         <v>133</v>
       </c>
       <c r="L64" t="s">
-        <v>39</v>
+        <v>227</v>
       </c>
       <c r="M64" t="s">
         <v>158</v>
@@ -7537,7 +7795,7 @@
         <v>137</v>
       </c>
       <c r="L65" t="s">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="M65" t="s">
         <v>158</v>
@@ -7569,7 +7827,7 @@
         <v>141</v>
       </c>
       <c r="L66" t="s">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="M66" t="s">
         <v>158</v>
@@ -7601,7 +7859,7 @@
         <v>145</v>
       </c>
       <c r="L67" t="s">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c r="M67" t="s">
         <v>158</v>
@@ -7633,7 +7891,7 @@
         <v>149</v>
       </c>
       <c r="L68" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="M68" t="s">
         <v>158</v>
@@ -7650,7 +7908,7 @@
         <v>153</v>
       </c>
       <c r="L69" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="M69" t="s">
         <v>158</v>
@@ -7667,7 +7925,7 @@
         <v>157</v>
       </c>
       <c r="L70" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="M70" t="s">
         <v>158</v>
@@ -7684,7 +7942,7 @@
         <v>161</v>
       </c>
       <c r="L71" t="s">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="M71" t="s">
         <v>158</v>

--- a/Excel Sheet/PCI-Express x16.xlsx
+++ b/Excel Sheet/PCI-Express x16.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="410">
   <si>
     <t xml:space="preserve">#  </t>
   </si>
@@ -758,6 +758,498 @@
   </si>
   <si>
     <t>PRSNT#2 _81</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>A17</t>
+  </si>
+  <si>
+    <t>A18</t>
+  </si>
+  <si>
+    <t>A19</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>A21</t>
+  </si>
+  <si>
+    <t>A22</t>
+  </si>
+  <si>
+    <t>A23</t>
+  </si>
+  <si>
+    <t>A24</t>
+  </si>
+  <si>
+    <t>A25</t>
+  </si>
+  <si>
+    <t>A26</t>
+  </si>
+  <si>
+    <t>A27</t>
+  </si>
+  <si>
+    <t>A28</t>
+  </si>
+  <si>
+    <t>A29</t>
+  </si>
+  <si>
+    <t>A30</t>
+  </si>
+  <si>
+    <t>A31</t>
+  </si>
+  <si>
+    <t>A32</t>
+  </si>
+  <si>
+    <t>A33</t>
+  </si>
+  <si>
+    <t>A34</t>
+  </si>
+  <si>
+    <t>A35</t>
+  </si>
+  <si>
+    <t>A36</t>
+  </si>
+  <si>
+    <t>A37</t>
+  </si>
+  <si>
+    <t>A38</t>
+  </si>
+  <si>
+    <t>A39</t>
+  </si>
+  <si>
+    <t>A40</t>
+  </si>
+  <si>
+    <t>A41</t>
+  </si>
+  <si>
+    <t>A42</t>
+  </si>
+  <si>
+    <t>A43</t>
+  </si>
+  <si>
+    <t>A44</t>
+  </si>
+  <si>
+    <t>A45</t>
+  </si>
+  <si>
+    <t>A46</t>
+  </si>
+  <si>
+    <t>A47</t>
+  </si>
+  <si>
+    <t>A48</t>
+  </si>
+  <si>
+    <t>A49</t>
+  </si>
+  <si>
+    <t>A50</t>
+  </si>
+  <si>
+    <t>A51</t>
+  </si>
+  <si>
+    <t>A52</t>
+  </si>
+  <si>
+    <t>A53</t>
+  </si>
+  <si>
+    <t>A54</t>
+  </si>
+  <si>
+    <t>A55</t>
+  </si>
+  <si>
+    <t>A56</t>
+  </si>
+  <si>
+    <t>A57</t>
+  </si>
+  <si>
+    <t>A58</t>
+  </si>
+  <si>
+    <t>A59</t>
+  </si>
+  <si>
+    <t>A60</t>
+  </si>
+  <si>
+    <t>A61</t>
+  </si>
+  <si>
+    <t>A62</t>
+  </si>
+  <si>
+    <t>A63</t>
+  </si>
+  <si>
+    <t>A64</t>
+  </si>
+  <si>
+    <t>A65</t>
+  </si>
+  <si>
+    <t>A66</t>
+  </si>
+  <si>
+    <t>A67</t>
+  </si>
+  <si>
+    <t>A68</t>
+  </si>
+  <si>
+    <t>A69</t>
+  </si>
+  <si>
+    <t>A70</t>
+  </si>
+  <si>
+    <t>A71</t>
+  </si>
+  <si>
+    <t>A72</t>
+  </si>
+  <si>
+    <t>A73</t>
+  </si>
+  <si>
+    <t>A74</t>
+  </si>
+  <si>
+    <t>A75</t>
+  </si>
+  <si>
+    <t>A76</t>
+  </si>
+  <si>
+    <t>A77</t>
+  </si>
+  <si>
+    <t>A78</t>
+  </si>
+  <si>
+    <t>A79</t>
+  </si>
+  <si>
+    <t>A80</t>
+  </si>
+  <si>
+    <t>A81</t>
+  </si>
+  <si>
+    <t>A82</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>B15</t>
+  </si>
+  <si>
+    <t>B16</t>
+  </si>
+  <si>
+    <t>B17</t>
+  </si>
+  <si>
+    <t>B18</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>B21</t>
+  </si>
+  <si>
+    <t>B22</t>
+  </si>
+  <si>
+    <t>B23</t>
+  </si>
+  <si>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>B25</t>
+  </si>
+  <si>
+    <t>B26</t>
+  </si>
+  <si>
+    <t>B27</t>
+  </si>
+  <si>
+    <t>B28</t>
+  </si>
+  <si>
+    <t>B29</t>
+  </si>
+  <si>
+    <t>B30</t>
+  </si>
+  <si>
+    <t>B31</t>
+  </si>
+  <si>
+    <t>B32</t>
+  </si>
+  <si>
+    <t>B33</t>
+  </si>
+  <si>
+    <t>B34</t>
+  </si>
+  <si>
+    <t>B35</t>
+  </si>
+  <si>
+    <t>B36</t>
+  </si>
+  <si>
+    <t>B37</t>
+  </si>
+  <si>
+    <t>B38</t>
+  </si>
+  <si>
+    <t>B39</t>
+  </si>
+  <si>
+    <t>B40</t>
+  </si>
+  <si>
+    <t>B41</t>
+  </si>
+  <si>
+    <t>B42</t>
+  </si>
+  <si>
+    <t>B43</t>
+  </si>
+  <si>
+    <t>B44</t>
+  </si>
+  <si>
+    <t>B45</t>
+  </si>
+  <si>
+    <t>B46</t>
+  </si>
+  <si>
+    <t>B47</t>
+  </si>
+  <si>
+    <t>B48</t>
+  </si>
+  <si>
+    <t>B49</t>
+  </si>
+  <si>
+    <t>B50</t>
+  </si>
+  <si>
+    <t>B51</t>
+  </si>
+  <si>
+    <t>B52</t>
+  </si>
+  <si>
+    <t>B53</t>
+  </si>
+  <si>
+    <t>B54</t>
+  </si>
+  <si>
+    <t>B55</t>
+  </si>
+  <si>
+    <t>B56</t>
+  </si>
+  <si>
+    <t>B57</t>
+  </si>
+  <si>
+    <t>B58</t>
+  </si>
+  <si>
+    <t>B59</t>
+  </si>
+  <si>
+    <t>B60</t>
+  </si>
+  <si>
+    <t>B61</t>
+  </si>
+  <si>
+    <t>B62</t>
+  </si>
+  <si>
+    <t>B63</t>
+  </si>
+  <si>
+    <t>B64</t>
+  </si>
+  <si>
+    <t>B65</t>
+  </si>
+  <si>
+    <t>B66</t>
+  </si>
+  <si>
+    <t>B67</t>
+  </si>
+  <si>
+    <t>B68</t>
+  </si>
+  <si>
+    <t>B69</t>
+  </si>
+  <si>
+    <t>B70</t>
+  </si>
+  <si>
+    <t>B71</t>
+  </si>
+  <si>
+    <t>B72</t>
+  </si>
+  <si>
+    <t>B73</t>
+  </si>
+  <si>
+    <t>B74</t>
+  </si>
+  <si>
+    <t>B75</t>
+  </si>
+  <si>
+    <t>B76</t>
+  </si>
+  <si>
+    <t>B77</t>
+  </si>
+  <si>
+    <t>B78</t>
+  </si>
+  <si>
+    <t>B79</t>
+  </si>
+  <si>
+    <t>B80</t>
+  </si>
+  <si>
+    <t>B81</t>
+  </si>
+  <si>
+    <t>B82</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
   </si>
 </sst>
 </file>
@@ -1128,1594 +1620,1594 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:G86"/>
+  <dimension ref="A3:F86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7">
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>0</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
-      <c r="B4">
-        <v>1</v>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="E4">
-        <v>83</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>84</v>
-      </c>
       <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>85</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7">
-        <v>4</v>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>403</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>404</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
-        <v>86</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>87</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>88</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>89</v>
+        <v>405</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
-      <c r="B11">
-        <v>8</v>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
       </c>
       <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>406</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>407</v>
+      </c>
+      <c r="E12" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>90</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12">
-        <v>91</v>
-      </c>
       <c r="F12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E13" t="s">
         <v>24</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13">
-        <v>92</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14">
-        <v>11</v>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14">
-        <v>93</v>
+        <v>409</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16">
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>328</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16">
+      <c r="D17" t="s">
+        <v>329</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" t="s">
+        <v>330</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>331</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>262</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>333</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>263</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>334</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>264</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" t="s">
+        <v>335</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>336</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>266</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>337</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>338</v>
+      </c>
+      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" t="s">
+        <v>339</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>269</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>340</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>270</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>341</v>
+      </c>
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>271</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>342</v>
+      </c>
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>272</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" t="s">
+        <v>343</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>273</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>344</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>274</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>345</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>275</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>346</v>
+      </c>
+      <c r="E34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>276</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" t="s">
+        <v>347</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>277</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>348</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>278</v>
+      </c>
+      <c r="B37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" t="s">
+        <v>349</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>279</v>
+      </c>
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>350</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>280</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s">
+        <v>351</v>
+      </c>
+      <c r="E39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>281</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s">
+        <v>352</v>
+      </c>
+      <c r="E40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>282</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
+        <v>353</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>283</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s">
+        <v>354</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>284</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>355</v>
+      </c>
+      <c r="E43" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>285</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s">
+        <v>356</v>
+      </c>
+      <c r="E44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>286</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" t="s">
+        <v>357</v>
+      </c>
+      <c r="E45" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>287</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>358</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>288</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>359</v>
+      </c>
+      <c r="E47" t="s">
+        <v>72</v>
+      </c>
+      <c r="F47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>289</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s">
+        <v>360</v>
+      </c>
+      <c r="E48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>290</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" t="s">
+        <v>361</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>291</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>362</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>292</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>363</v>
+      </c>
+      <c r="E51" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>293</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" t="s">
+        <v>364</v>
+      </c>
+      <c r="E52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>294</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>365</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>295</v>
+      </c>
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" t="s">
+        <v>366</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>296</v>
+      </c>
+      <c r="B55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
+        <v>367</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>297</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>368</v>
+      </c>
+      <c r="E56" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>298</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>369</v>
+      </c>
+      <c r="E57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>299</v>
+      </c>
+      <c r="B58" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" t="s">
+        <v>370</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>300</v>
+      </c>
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>371</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>301</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" t="s">
+        <v>372</v>
+      </c>
+      <c r="E60" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>302</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>373</v>
+      </c>
+      <c r="E61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>303</v>
+      </c>
+      <c r="B62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" t="s">
+        <v>374</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>304</v>
+      </c>
+      <c r="B63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>375</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>305</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" t="s">
+        <v>376</v>
+      </c>
+      <c r="E64" t="s">
+        <v>88</v>
+      </c>
+      <c r="F64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>306</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>377</v>
+      </c>
+      <c r="E65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>307</v>
+      </c>
+      <c r="B66" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" t="s">
+        <v>378</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>308</v>
+      </c>
+      <c r="B67" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>379</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>309</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>380</v>
+      </c>
+      <c r="E68" t="s">
+        <v>92</v>
+      </c>
+      <c r="F68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>310</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>381</v>
+      </c>
+      <c r="E69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>311</v>
+      </c>
+      <c r="B70" t="s">
         <v>94</v>
       </c>
-      <c r="F16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="C70" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" t="s">
+        <v>382</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17">
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>312</v>
+      </c>
+      <c r="B71" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>383</v>
+      </c>
+      <c r="E71" t="s">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>313</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
         <v>12</v>
       </c>
-      <c r="E17">
-        <v>95</v>
-      </c>
-      <c r="F17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18">
+      <c r="D72" t="s">
+        <v>384</v>
+      </c>
+      <c r="E72" t="s">
         <v>96</v>
       </c>
-      <c r="F18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19">
+      <c r="F72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>314</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" t="s">
+        <v>385</v>
+      </c>
+      <c r="E73" t="s">
         <v>97</v>
       </c>
-      <c r="F19" t="s">
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>315</v>
+      </c>
+      <c r="B74" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" t="s">
+        <v>386</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>316</v>
+      </c>
+      <c r="B75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>387</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>317</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
         <v>12</v>
       </c>
-      <c r="E20">
-        <v>98</v>
-      </c>
-      <c r="F20" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D76" t="s">
+        <v>388</v>
+      </c>
+      <c r="E76" t="s">
+        <v>100</v>
+      </c>
+      <c r="F76" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>318</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" t="s">
+        <v>389</v>
+      </c>
+      <c r="E77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>319</v>
+      </c>
+      <c r="B78" t="s">
+        <v>102</v>
+      </c>
+      <c r="C78" t="s">
+        <v>140</v>
+      </c>
+      <c r="D78" t="s">
+        <v>390</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>320</v>
+      </c>
+      <c r="B79" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
+        <v>391</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>321</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" t="s">
+        <v>392</v>
+      </c>
+      <c r="E80" t="s">
+        <v>104</v>
+      </c>
+      <c r="F80" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>322</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" t="s">
+        <v>393</v>
+      </c>
+      <c r="E81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>323</v>
+      </c>
+      <c r="B82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" t="s">
+        <v>142</v>
+      </c>
+      <c r="D82" t="s">
+        <v>394</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>324</v>
+      </c>
+      <c r="B83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s">
+        <v>395</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>325</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
+        <v>396</v>
+      </c>
+      <c r="E84" t="s">
+        <v>108</v>
+      </c>
+      <c r="F84" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>326</v>
+      </c>
+      <c r="B85" t="s">
         <v>45</v>
       </c>
-      <c r="D21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21">
-        <v>99</v>
-      </c>
-      <c r="F21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22">
-        <v>100</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23">
-        <v>101</v>
-      </c>
-      <c r="F23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24">
-        <v>102</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25">
-        <v>21</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25">
-        <v>103</v>
-      </c>
-      <c r="F25" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26">
-        <v>22</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26">
-        <v>104</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27">
-        <v>105</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28">
-        <v>106</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29">
-        <v>107</v>
-      </c>
-      <c r="F29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30">
-        <v>108</v>
-      </c>
-      <c r="F30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31">
-        <v>27</v>
-      </c>
-      <c r="C31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31">
+      <c r="C85" t="s">
         <v>109</v>
       </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32">
-        <v>28</v>
-      </c>
-      <c r="C32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32">
+      <c r="D85" t="s">
+        <v>397</v>
+      </c>
+      <c r="E85" t="s">
         <v>110</v>
       </c>
-      <c r="F32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33">
-        <v>29</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33">
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>327</v>
+      </c>
+      <c r="B86" t="s">
         <v>111</v>
       </c>
-      <c r="F33" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34">
-        <v>30</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34">
+      <c r="C86" t="s">
         <v>112</v>
       </c>
-      <c r="F34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35">
-        <v>31</v>
-      </c>
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35">
-        <v>113</v>
-      </c>
-      <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36">
-        <v>32</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36">
-        <v>114</v>
-      </c>
-      <c r="F36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37">
-        <v>33</v>
-      </c>
-      <c r="C37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37">
-        <v>115</v>
-      </c>
-      <c r="F37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38">
-        <v>34</v>
-      </c>
-      <c r="C38" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38">
-        <v>116</v>
-      </c>
-      <c r="F38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39">
-        <v>35</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39">
-        <v>117</v>
-      </c>
-      <c r="F39" t="s">
-        <v>64</v>
-      </c>
-      <c r="G39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40">
-        <v>36</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40">
-        <v>118</v>
-      </c>
-      <c r="F40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41">
-        <v>37</v>
-      </c>
-      <c r="C41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41">
-        <v>119</v>
-      </c>
-      <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42">
-        <v>38</v>
-      </c>
-      <c r="C42" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42">
-        <v>120</v>
-      </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43">
-        <v>39</v>
-      </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43">
-        <v>121</v>
-      </c>
-      <c r="F43" t="s">
-        <v>68</v>
-      </c>
-      <c r="G43" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44">
-        <v>40</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44">
-        <v>122</v>
-      </c>
-      <c r="F44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45">
-        <v>41</v>
-      </c>
-      <c r="C45" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" t="s">
-        <v>124</v>
-      </c>
-      <c r="E45">
-        <v>123</v>
-      </c>
-      <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46">
-        <v>42</v>
-      </c>
-      <c r="C46" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46">
-        <v>124</v>
-      </c>
-      <c r="F46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47">
-        <v>43</v>
-      </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47">
-        <v>125</v>
-      </c>
-      <c r="F47" t="s">
-        <v>72</v>
-      </c>
-      <c r="G47" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48">
-        <v>44</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48">
-        <v>126</v>
-      </c>
-      <c r="F48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49">
-        <v>45</v>
-      </c>
-      <c r="C49" t="s">
-        <v>74</v>
-      </c>
-      <c r="D49" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49">
-        <v>127</v>
-      </c>
-      <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50">
-        <v>46</v>
-      </c>
-      <c r="C50" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50">
-        <v>128</v>
-      </c>
-      <c r="F50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51">
-        <v>47</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51">
-        <v>129</v>
-      </c>
-      <c r="F51" t="s">
-        <v>76</v>
-      </c>
-      <c r="G51" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52">
-        <v>48</v>
-      </c>
-      <c r="C52" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52">
-        <v>130</v>
-      </c>
-      <c r="F52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53">
-        <v>49</v>
-      </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53">
-        <v>131</v>
-      </c>
-      <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54">
-        <v>50</v>
-      </c>
-      <c r="C54" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" t="s">
-        <v>128</v>
-      </c>
-      <c r="E54">
-        <v>132</v>
-      </c>
-      <c r="F54" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55">
-        <v>51</v>
-      </c>
-      <c r="C55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55">
-        <v>133</v>
-      </c>
-      <c r="F55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7">
-      <c r="B56">
-        <v>52</v>
-      </c>
-      <c r="C56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56">
-        <v>134</v>
-      </c>
-      <c r="F56" t="s">
-        <v>80</v>
-      </c>
-      <c r="G56" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7">
-      <c r="B57">
-        <v>53</v>
-      </c>
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57">
-        <v>135</v>
-      </c>
-      <c r="F57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7">
-      <c r="B58">
-        <v>54</v>
-      </c>
-      <c r="C58" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" t="s">
-        <v>130</v>
-      </c>
-      <c r="E58">
-        <v>136</v>
-      </c>
-      <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59">
-        <v>55</v>
-      </c>
-      <c r="C59" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59">
-        <v>137</v>
-      </c>
-      <c r="F59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="B60">
-        <v>56</v>
-      </c>
-      <c r="C60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60">
-        <v>138</v>
-      </c>
-      <c r="F60" t="s">
-        <v>84</v>
-      </c>
-      <c r="G60" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="B61">
-        <v>57</v>
-      </c>
-      <c r="C61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61">
-        <v>139</v>
-      </c>
-      <c r="F61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7">
-      <c r="B62">
-        <v>58</v>
-      </c>
-      <c r="C62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D62" t="s">
-        <v>132</v>
-      </c>
-      <c r="E62">
-        <v>140</v>
-      </c>
-      <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7">
-      <c r="B63">
-        <v>59</v>
-      </c>
-      <c r="C63" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63">
-        <v>141</v>
-      </c>
-      <c r="F63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7">
-      <c r="B64">
-        <v>60</v>
-      </c>
-      <c r="C64" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64">
-        <v>142</v>
-      </c>
-      <c r="F64" t="s">
-        <v>88</v>
-      </c>
-      <c r="G64" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7">
-      <c r="B65">
-        <v>61</v>
-      </c>
-      <c r="C65" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65">
-        <v>143</v>
-      </c>
-      <c r="F65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7">
-      <c r="B66">
-        <v>62</v>
-      </c>
-      <c r="C66" t="s">
-        <v>90</v>
-      </c>
-      <c r="D66" t="s">
-        <v>134</v>
-      </c>
-      <c r="E66">
-        <v>144</v>
-      </c>
-      <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7">
-      <c r="B67">
-        <v>63</v>
-      </c>
-      <c r="C67" t="s">
-        <v>91</v>
-      </c>
-      <c r="D67" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67">
-        <v>145</v>
-      </c>
-      <c r="F67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7">
-      <c r="B68">
-        <v>64</v>
-      </c>
-      <c r="C68" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68">
-        <v>146</v>
-      </c>
-      <c r="F68" t="s">
-        <v>92</v>
-      </c>
-      <c r="G68" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7">
-      <c r="B69">
-        <v>65</v>
-      </c>
-      <c r="C69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69">
-        <v>147</v>
-      </c>
-      <c r="F69" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7">
-      <c r="B70">
-        <v>66</v>
-      </c>
-      <c r="C70" t="s">
-        <v>94</v>
-      </c>
-      <c r="D70" t="s">
-        <v>136</v>
-      </c>
-      <c r="E70">
-        <v>148</v>
-      </c>
-      <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7">
-      <c r="B71">
-        <v>67</v>
-      </c>
-      <c r="C71" t="s">
-        <v>95</v>
-      </c>
-      <c r="D71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71">
-        <v>149</v>
-      </c>
-      <c r="F71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7">
-      <c r="B72">
-        <v>68</v>
-      </c>
-      <c r="C72" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s">
-        <v>12</v>
-      </c>
-      <c r="E72">
-        <v>150</v>
-      </c>
-      <c r="F72" t="s">
-        <v>96</v>
-      </c>
-      <c r="G72" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7">
-      <c r="B73">
-        <v>69</v>
-      </c>
-      <c r="C73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73">
-        <v>151</v>
-      </c>
-      <c r="F73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7">
-      <c r="B74">
-        <v>70</v>
-      </c>
-      <c r="C74" t="s">
-        <v>98</v>
-      </c>
-      <c r="D74" t="s">
-        <v>138</v>
-      </c>
-      <c r="E74">
-        <v>152</v>
-      </c>
-      <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7">
-      <c r="B75">
-        <v>71</v>
-      </c>
-      <c r="C75" t="s">
-        <v>99</v>
-      </c>
-      <c r="D75" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75">
-        <v>153</v>
-      </c>
-      <c r="F75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7">
-      <c r="B76">
-        <v>72</v>
-      </c>
-      <c r="C76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s">
-        <v>12</v>
-      </c>
-      <c r="E76">
-        <v>154</v>
-      </c>
-      <c r="F76" t="s">
-        <v>100</v>
-      </c>
-      <c r="G76" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7">
-      <c r="B77">
-        <v>73</v>
-      </c>
-      <c r="C77" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77">
-        <v>155</v>
-      </c>
-      <c r="F77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7">
-      <c r="B78">
-        <v>74</v>
-      </c>
-      <c r="C78" t="s">
-        <v>102</v>
-      </c>
-      <c r="D78" t="s">
-        <v>140</v>
-      </c>
-      <c r="E78">
-        <v>156</v>
-      </c>
-      <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7">
-      <c r="B79">
-        <v>75</v>
-      </c>
-      <c r="C79" t="s">
-        <v>103</v>
-      </c>
-      <c r="D79" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79">
-        <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7">
-      <c r="B80">
-        <v>76</v>
-      </c>
-      <c r="C80" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80">
-        <v>158</v>
-      </c>
-      <c r="F80" t="s">
-        <v>104</v>
-      </c>
-      <c r="G80" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7">
-      <c r="B81">
-        <v>77</v>
-      </c>
-      <c r="C81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81">
-        <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7">
-      <c r="B82">
-        <v>78</v>
-      </c>
-      <c r="C82" t="s">
-        <v>106</v>
-      </c>
-      <c r="D82" t="s">
-        <v>142</v>
-      </c>
-      <c r="E82">
-        <v>160</v>
-      </c>
-      <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7">
-      <c r="B83">
-        <v>79</v>
-      </c>
-      <c r="C83" t="s">
-        <v>107</v>
-      </c>
-      <c r="D83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83">
-        <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7">
-      <c r="B84">
-        <v>80</v>
-      </c>
-      <c r="C84" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84">
-        <v>162</v>
-      </c>
-      <c r="F84" t="s">
-        <v>108</v>
-      </c>
-      <c r="G84" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7">
-      <c r="B85">
-        <v>81</v>
-      </c>
-      <c r="C85" t="s">
-        <v>45</v>
-      </c>
-      <c r="D85" t="s">
-        <v>109</v>
-      </c>
-      <c r="E85">
-        <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7">
-      <c r="B86">
-        <v>82</v>
-      </c>
-      <c r="C86" t="s">
-        <v>111</v>
-      </c>
       <c r="D86" t="s">
-        <v>112</v>
-      </c>
-      <c r="E86">
-        <v>164</v>
+        <v>398</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="A15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2725,8 +3217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2740,1321 +3232,1321 @@
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>246</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4">
-        <v>2</v>
+      <c r="B4" t="s">
+        <v>255</v>
       </c>
       <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
-      <c r="B5">
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>275</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
+        <v>278</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
+        <v>280</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>281</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>282</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>283</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>284</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>285</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
+        <v>286</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
+        <v>287</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>288</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>289</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
+        <v>290</v>
+      </c>
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
+        <v>291</v>
+      </c>
+      <c r="C43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
+        <v>292</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
+        <v>293</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
+        <v>294</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>250</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
+        <v>295</v>
+      </c>
+      <c r="C48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
+        <v>296</v>
+      </c>
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
+        <v>297</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" t="s">
+        <v>298</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>299</v>
+      </c>
+      <c r="C52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
+        <v>300</v>
+      </c>
+      <c r="C53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" t="s">
+        <v>301</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" t="s">
+        <v>302</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" t="s">
+        <v>303</v>
+      </c>
+      <c r="C56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" t="s">
+        <v>304</v>
+      </c>
+      <c r="C57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" t="s">
+        <v>305</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" t="s">
+        <v>306</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" t="s">
+        <v>307</v>
+      </c>
+      <c r="C61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" t="s">
+        <v>308</v>
+      </c>
+      <c r="C62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" t="s">
+        <v>309</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3">
+      <c r="B64" t="s">
+        <v>310</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" t="s">
+        <v>311</v>
+      </c>
+      <c r="C65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" t="s">
+        <v>312</v>
+      </c>
+      <c r="C66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" t="s">
+        <v>313</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" t="s">
+        <v>314</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3">
+      <c r="B69" t="s">
+        <v>252</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3">
+      <c r="B70" t="s">
+        <v>315</v>
+      </c>
+      <c r="C70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" t="s">
+        <v>316</v>
+      </c>
+      <c r="C71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" t="s">
+        <v>317</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" t="s">
+        <v>318</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" t="s">
+        <v>319</v>
+      </c>
+      <c r="C74" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" t="s">
+        <v>320</v>
+      </c>
+      <c r="C75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" t="s">
+        <v>321</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="B77" t="s">
+        <v>322</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="B78" t="s">
+        <v>323</v>
+      </c>
+      <c r="C78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="B79" t="s">
+        <v>324</v>
+      </c>
+      <c r="C79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="B80" t="s">
+        <v>253</v>
+      </c>
+      <c r="C80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" t="s">
+        <v>325</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" t="s">
+        <v>326</v>
+      </c>
+      <c r="C82" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" t="s">
+        <v>327</v>
+      </c>
+      <c r="C83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" t="s">
+        <v>254</v>
+      </c>
+      <c r="C84" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" t="s">
+        <v>399</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" t="s">
+        <v>408</v>
+      </c>
+      <c r="C86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
+        <v>409</v>
+      </c>
+      <c r="C87" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" t="s">
+        <v>328</v>
+      </c>
+      <c r="C88" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
+        <v>329</v>
+      </c>
+      <c r="C89" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" t="s">
+        <v>330</v>
+      </c>
+      <c r="C90" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" t="s">
+        <v>331</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" t="s">
+        <v>332</v>
+      </c>
+      <c r="C92" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" t="s">
+        <v>333</v>
+      </c>
+      <c r="C93" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" t="s">
+        <v>334</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" t="s">
+        <v>335</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" t="s">
+        <v>400</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" t="s">
+        <v>336</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" t="s">
+        <v>337</v>
+      </c>
+      <c r="C98" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" t="s">
+        <v>338</v>
+      </c>
+      <c r="C99" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" t="s">
+        <v>339</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" t="s">
+        <v>340</v>
+      </c>
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" t="s">
+        <v>341</v>
+      </c>
+      <c r="C102" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" t="s">
+        <v>342</v>
+      </c>
+      <c r="C103" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" t="s">
+        <v>343</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" t="s">
+        <v>344</v>
+      </c>
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" t="s">
+        <v>345</v>
+      </c>
+      <c r="C106" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" t="s">
+        <v>401</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" t="s">
+        <v>346</v>
+      </c>
+      <c r="C108" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109" t="s">
+        <v>347</v>
+      </c>
+      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" t="s">
+        <v>348</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" t="s">
+        <v>349</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" t="s">
+        <v>350</v>
+      </c>
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" t="s">
+        <v>351</v>
+      </c>
+      <c r="C113" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" t="s">
+        <v>352</v>
+      </c>
+      <c r="C114" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" t="s">
+        <v>353</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" t="s">
+        <v>354</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" t="s">
+        <v>355</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" t="s">
+        <v>402</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" t="s">
+        <v>356</v>
+      </c>
+      <c r="C119" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" t="s">
+        <v>357</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121" t="s">
+        <v>358</v>
+      </c>
+      <c r="C121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" t="s">
+        <v>359</v>
+      </c>
+      <c r="C122" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123" t="s">
+        <v>360</v>
+      </c>
+      <c r="C123" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" t="s">
+        <v>361</v>
+      </c>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125" t="s">
+        <v>362</v>
+      </c>
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126" t="s">
+        <v>363</v>
+      </c>
+      <c r="C126" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="B127" t="s">
+        <v>364</v>
+      </c>
+      <c r="C127" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="B128" t="s">
+        <v>365</v>
+      </c>
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="B129" t="s">
+        <v>403</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130" t="s">
+        <v>366</v>
+      </c>
+      <c r="C130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="B131" t="s">
+        <v>367</v>
+      </c>
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3">
+      <c r="B132" t="s">
+        <v>368</v>
+      </c>
+      <c r="C132" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3">
+      <c r="B133" t="s">
+        <v>369</v>
+      </c>
+      <c r="C133" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="B134" t="s">
+        <v>370</v>
+      </c>
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3">
+      <c r="B135" t="s">
+        <v>371</v>
+      </c>
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3">
+      <c r="B136" t="s">
+        <v>372</v>
+      </c>
+      <c r="C136" t="s">
         <v>84</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6">
+    </row>
+    <row r="137" spans="2:3">
+      <c r="B137" t="s">
+        <v>373</v>
+      </c>
+      <c r="C137" t="s">
         <v>85</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="138" spans="2:3">
+      <c r="B138" t="s">
+        <v>374</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3">
+      <c r="B139" t="s">
+        <v>375</v>
+      </c>
+      <c r="C139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3">
+      <c r="B140" t="s">
+        <v>404</v>
+      </c>
+      <c r="C140" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3">
+      <c r="B141" t="s">
+        <v>376</v>
+      </c>
+      <c r="C141" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3">
+      <c r="B142" t="s">
+        <v>377</v>
+      </c>
+      <c r="C142" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3">
+      <c r="B143" t="s">
+        <v>378</v>
+      </c>
+      <c r="C143" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3">
+      <c r="B144" t="s">
+        <v>379</v>
+      </c>
+      <c r="C144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3">
+      <c r="B145" t="s">
+        <v>380</v>
+      </c>
+      <c r="C145" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146" t="s">
+        <v>381</v>
+      </c>
+      <c r="C146" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3">
+      <c r="B147" t="s">
+        <v>382</v>
+      </c>
+      <c r="C147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3">
+      <c r="B148" t="s">
+        <v>383</v>
+      </c>
+      <c r="C148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3">
+      <c r="B149" t="s">
+        <v>384</v>
+      </c>
+      <c r="C149" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3">
+      <c r="B150" t="s">
+        <v>385</v>
+      </c>
+      <c r="C150" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3">
+      <c r="B151" t="s">
+        <v>405</v>
+      </c>
+      <c r="C151" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3">
+      <c r="B152" t="s">
+        <v>386</v>
+      </c>
+      <c r="C152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3">
+      <c r="B153" t="s">
+        <v>387</v>
+      </c>
+      <c r="C153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3">
+      <c r="B154" t="s">
+        <v>388</v>
+      </c>
+      <c r="C154" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3">
+      <c r="B155" t="s">
+        <v>389</v>
+      </c>
+      <c r="C155" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3">
+      <c r="B156" t="s">
+        <v>390</v>
+      </c>
+      <c r="C156" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3">
+      <c r="B157" t="s">
+        <v>391</v>
+      </c>
+      <c r="C157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3">
+      <c r="B158" t="s">
+        <v>392</v>
+      </c>
+      <c r="C158" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3">
+      <c r="B159" t="s">
+        <v>393</v>
+      </c>
+      <c r="C159" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3">
+      <c r="B160" t="s">
+        <v>394</v>
+      </c>
+      <c r="C160" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="B161" t="s">
+        <v>395</v>
+      </c>
+      <c r="C161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="B162" t="s">
+        <v>406</v>
+      </c>
+      <c r="C162" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3">
+      <c r="B163" t="s">
+        <v>396</v>
+      </c>
+      <c r="C163" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="B164" t="s">
+        <v>397</v>
+      </c>
+      <c r="C164" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" t="s">
+        <v>398</v>
+      </c>
+      <c r="C165" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3">
+      <c r="B166" t="s">
+        <v>407</v>
+      </c>
+      <c r="C166" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8">
-        <v>91</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25">
-        <v>40</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27">
-        <v>44</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29">
-        <v>49</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30">
-        <v>52</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31">
-        <v>53</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32">
-        <v>56</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33">
-        <v>57</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34">
-        <v>60</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35">
-        <v>61</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36">
-        <v>64</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37">
-        <v>65</v>
-      </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38">
-        <v>68</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39">
-        <v>69</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40">
-        <v>72</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41">
-        <v>73</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42">
-        <v>76</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43">
-        <v>77</v>
-      </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44">
-        <v>80</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="B46">
-        <v>100</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47">
-        <v>105</v>
-      </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48">
-        <v>109</v>
-      </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49">
-        <v>113</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50">
-        <v>119</v>
-      </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51">
-        <v>123</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52">
-        <v>127</v>
-      </c>
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53">
-        <v>131</v>
-      </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54">
-        <v>136</v>
-      </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55">
-        <v>140</v>
-      </c>
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56">
-        <v>144</v>
-      </c>
-      <c r="C56" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="B57">
-        <v>148</v>
-      </c>
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3">
-      <c r="B58">
-        <v>152</v>
-      </c>
-      <c r="C58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59">
-        <v>156</v>
-      </c>
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60">
-        <v>160</v>
-      </c>
-      <c r="C60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="B61">
-        <v>164</v>
-      </c>
-      <c r="C61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62">
-        <v>94</v>
-      </c>
-      <c r="C62" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63">
-        <v>97</v>
-      </c>
-      <c r="C63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64">
-        <v>102</v>
-      </c>
-      <c r="C64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="B65">
-        <v>106</v>
-      </c>
-      <c r="C65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66">
-        <v>110</v>
-      </c>
-      <c r="C66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67">
-        <v>116</v>
-      </c>
-      <c r="C67" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68">
-        <v>120</v>
-      </c>
-      <c r="C68" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="B69">
-        <v>124</v>
-      </c>
-      <c r="C69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3">
-      <c r="B70">
-        <v>128</v>
-      </c>
-      <c r="C70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="B71">
-        <v>133</v>
-      </c>
-      <c r="C71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3">
-      <c r="B72">
-        <v>137</v>
-      </c>
-      <c r="C72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3">
-      <c r="B73">
-        <v>141</v>
-      </c>
-      <c r="C73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3">
-      <c r="B74">
-        <v>145</v>
-      </c>
-      <c r="C74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3">
-      <c r="B75">
-        <v>149</v>
-      </c>
-      <c r="C75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3">
-      <c r="B76">
-        <v>153</v>
-      </c>
-      <c r="C76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3">
-      <c r="B77">
-        <v>157</v>
-      </c>
-      <c r="C77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3">
-      <c r="B78">
-        <v>161</v>
-      </c>
-      <c r="C78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3">
-      <c r="B79">
-        <v>99</v>
-      </c>
-      <c r="C79" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3">
-      <c r="B80">
-        <v>104</v>
-      </c>
-      <c r="C80" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3">
-      <c r="B81">
-        <v>143</v>
-      </c>
-      <c r="C81" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3">
-      <c r="B82">
-        <v>147</v>
-      </c>
-      <c r="C82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3">
-      <c r="B83">
-        <v>151</v>
-      </c>
-      <c r="C83" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3">
-      <c r="B84">
-        <v>155</v>
-      </c>
-      <c r="C84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3">
-      <c r="B85">
-        <v>159</v>
-      </c>
-      <c r="C85" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3">
-      <c r="B86">
-        <v>163</v>
-      </c>
-      <c r="C86" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3">
-      <c r="B87">
-        <v>108</v>
-      </c>
-      <c r="C87" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3">
-      <c r="B88">
-        <v>112</v>
-      </c>
-      <c r="C88" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3">
-      <c r="B89">
-        <v>118</v>
-      </c>
-      <c r="C89" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3">
-      <c r="B90">
-        <v>122</v>
-      </c>
-      <c r="C90" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3">
-      <c r="B91">
-        <v>126</v>
-      </c>
-      <c r="C91" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3">
-      <c r="B92">
-        <v>130</v>
-      </c>
-      <c r="C92" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3">
-      <c r="B93">
-        <v>135</v>
-      </c>
-      <c r="C93" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3">
-      <c r="B94">
-        <v>139</v>
-      </c>
-      <c r="C94" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3">
-      <c r="B95">
-        <v>98</v>
-      </c>
-      <c r="C95" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3">
-      <c r="B96">
-        <v>103</v>
-      </c>
-      <c r="C96" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3">
-      <c r="B97">
-        <v>142</v>
-      </c>
-      <c r="C97" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3">
-      <c r="B98">
-        <v>146</v>
-      </c>
-      <c r="C98" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3">
-      <c r="B99">
-        <v>150</v>
-      </c>
-      <c r="C99" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3">
-      <c r="B100">
-        <v>154</v>
-      </c>
-      <c r="C100" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3">
-      <c r="B101">
-        <v>158</v>
-      </c>
-      <c r="C101" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3">
-      <c r="B102">
-        <v>162</v>
-      </c>
-      <c r="C102" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3">
-      <c r="B103">
-        <v>107</v>
-      </c>
-      <c r="C103" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3">
-      <c r="B104">
-        <v>111</v>
-      </c>
-      <c r="C104" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3">
-      <c r="B105">
-        <v>117</v>
-      </c>
-      <c r="C105" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3">
-      <c r="B106">
-        <v>121</v>
-      </c>
-      <c r="C106" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3">
-      <c r="B107">
-        <v>125</v>
-      </c>
-      <c r="C107" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3">
-      <c r="B108">
-        <v>129</v>
-      </c>
-      <c r="C108" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3">
-      <c r="B109">
-        <v>134</v>
-      </c>
-      <c r="C109" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3">
-      <c r="B110">
-        <v>138</v>
-      </c>
-      <c r="C110" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3">
-      <c r="B111">
-        <v>15</v>
-      </c>
-      <c r="C111" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3">
-      <c r="B112">
-        <v>20</v>
-      </c>
-      <c r="C112" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3">
-      <c r="B113">
-        <v>59</v>
-      </c>
-      <c r="C113" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3">
-      <c r="B114">
-        <v>63</v>
-      </c>
-      <c r="C114" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3">
-      <c r="B115">
-        <v>67</v>
-      </c>
-      <c r="C115" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3">
-      <c r="B116">
-        <v>71</v>
-      </c>
-      <c r="C116" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3">
-      <c r="B117">
-        <v>75</v>
-      </c>
-      <c r="C117" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3">
-      <c r="B118">
-        <v>79</v>
-      </c>
-      <c r="C118" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3">
-      <c r="B119">
-        <v>24</v>
-      </c>
-      <c r="C119" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3">
-      <c r="B120">
-        <v>28</v>
-      </c>
-      <c r="C120" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="121" spans="2:3">
-      <c r="B121">
-        <v>34</v>
-      </c>
-      <c r="C121" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3">
-      <c r="B122">
-        <v>38</v>
-      </c>
-      <c r="C122" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3">
-      <c r="B123">
-        <v>42</v>
-      </c>
-      <c r="C123" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3">
-      <c r="B124">
-        <v>46</v>
-      </c>
-      <c r="C124" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3">
-      <c r="B125">
-        <v>51</v>
-      </c>
-      <c r="C125" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3">
-      <c r="B126">
-        <v>55</v>
-      </c>
-      <c r="C126" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3">
-      <c r="B127">
-        <v>14</v>
-      </c>
-      <c r="C127" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3">
-      <c r="B128">
-        <v>19</v>
-      </c>
-      <c r="C128" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="129" spans="2:3">
-      <c r="B129">
-        <v>58</v>
-      </c>
-      <c r="C129" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="130" spans="2:3">
-      <c r="B130">
-        <v>62</v>
-      </c>
-      <c r="C130" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3">
-      <c r="B131">
-        <v>66</v>
-      </c>
-      <c r="C131" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="132" spans="2:3">
-      <c r="B132">
-        <v>70</v>
-      </c>
-      <c r="C132" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="133" spans="2:3">
-      <c r="B133">
-        <v>74</v>
-      </c>
-      <c r="C133" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="134" spans="2:3">
-      <c r="B134">
-        <v>78</v>
-      </c>
-      <c r="C134" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="135" spans="2:3">
-      <c r="B135">
-        <v>23</v>
-      </c>
-      <c r="C135" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="136" spans="2:3">
-      <c r="B136">
-        <v>27</v>
-      </c>
-      <c r="C136" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="137" spans="2:3">
-      <c r="B137">
-        <v>33</v>
-      </c>
-      <c r="C137" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3">
-      <c r="B138">
-        <v>37</v>
-      </c>
-      <c r="C138" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="139" spans="2:3">
-      <c r="B139">
-        <v>41</v>
-      </c>
-      <c r="C139" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="140" spans="2:3">
-      <c r="B140">
-        <v>45</v>
-      </c>
-      <c r="C140" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="141" spans="2:3">
-      <c r="B141">
-        <v>50</v>
-      </c>
-      <c r="C141" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="142" spans="2:3">
-      <c r="B142">
-        <v>54</v>
-      </c>
-      <c r="C142" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="143" spans="2:3">
-      <c r="B143">
-        <v>9</v>
-      </c>
-      <c r="C143" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="144" spans="2:3">
-      <c r="B144">
-        <v>87</v>
-      </c>
-      <c r="C144" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3">
-      <c r="B145">
-        <v>88</v>
-      </c>
-      <c r="C145" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3">
-      <c r="B146">
-        <v>89</v>
-      </c>
-      <c r="C146" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3">
-      <c r="B147">
-        <v>90</v>
-      </c>
-      <c r="C147" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3">
-      <c r="B148">
-        <v>83</v>
-      </c>
-      <c r="C148" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3">
-      <c r="B149">
-        <v>17</v>
-      </c>
-      <c r="C149" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3">
-      <c r="B150">
-        <v>31</v>
-      </c>
-      <c r="C150" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3">
-      <c r="B151">
-        <v>48</v>
-      </c>
-      <c r="C151" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3">
-      <c r="B152">
-        <v>81</v>
-      </c>
-      <c r="C152" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3">
-      <c r="B153">
-        <v>93</v>
-      </c>
-      <c r="C153" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3">
-      <c r="B154">
-        <v>96</v>
-      </c>
-      <c r="C154" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3">
-      <c r="B155">
-        <v>95</v>
-      </c>
-      <c r="C155" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3">
-      <c r="B156">
-        <v>3</v>
-      </c>
-      <c r="C156" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3">
-      <c r="B157">
-        <v>30</v>
-      </c>
-      <c r="C157" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3">
-      <c r="B158">
-        <v>101</v>
-      </c>
-      <c r="C158" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3">
-      <c r="B159">
-        <v>114</v>
-      </c>
-      <c r="C159" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3">
-      <c r="B160">
-        <v>115</v>
-      </c>
-      <c r="C160" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3">
-      <c r="B161">
-        <v>132</v>
-      </c>
-      <c r="C161" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3">
-      <c r="B162">
-        <v>12</v>
-      </c>
-      <c r="C162" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3">
-      <c r="B163">
-        <v>82</v>
-      </c>
-      <c r="C163" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3">
-      <c r="B164">
-        <v>5</v>
-      </c>
-      <c r="C164" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="165" spans="2:3">
-      <c r="B165">
-        <v>6</v>
-      </c>
-      <c r="C165" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="166" spans="2:3">
-      <c r="B166">
-        <v>11</v>
-      </c>
-      <c r="C166" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:C2">
     <sortState ref="B3:C166">
-      <sortCondition ref="C2"/>
+      <sortCondition ref="B2"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4066,7 +4558,7 @@
   <dimension ref="B2:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4112,1120 +4604,1120 @@
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>246</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="E4">
-        <v>4</v>
+      <c r="E4" t="s">
+        <v>249</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="H4">
-        <v>9</v>
+      <c r="H4" t="s">
+        <v>254</v>
       </c>
       <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="K4">
-        <v>99</v>
+      <c r="K4" t="s">
+        <v>333</v>
       </c>
       <c r="L4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5">
-        <v>2</v>
+      <c r="B5" t="s">
+        <v>247</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>7</v>
+      <c r="E5" t="s">
+        <v>252</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="H5">
-        <v>87</v>
+      <c r="H5" t="s">
+        <v>403</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
       </c>
-      <c r="K5">
-        <v>104</v>
+      <c r="K5" t="s">
+        <v>338</v>
       </c>
       <c r="L5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6">
-        <v>84</v>
+      <c r="B6" t="s">
+        <v>400</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="E6">
-        <v>13</v>
+      <c r="E6" t="s">
+        <v>258</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="H6">
-        <v>88</v>
+      <c r="H6" t="s">
+        <v>404</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
-      <c r="K6">
-        <v>108</v>
+      <c r="K6" t="s">
+        <v>342</v>
       </c>
       <c r="L6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7">
-        <v>85</v>
+      <c r="B7" t="s">
+        <v>401</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="E7">
-        <v>16</v>
+      <c r="E7" t="s">
+        <v>261</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="H7">
-        <v>89</v>
+      <c r="H7" t="s">
+        <v>405</v>
       </c>
       <c r="I7" t="s">
         <v>22</v>
       </c>
-      <c r="K7">
-        <v>112</v>
+      <c r="K7" t="s">
+        <v>346</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8">
-        <v>8</v>
+      <c r="B8" t="s">
+        <v>253</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E8">
-        <v>18</v>
+      <c r="E8" t="s">
+        <v>263</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="H8">
-        <v>90</v>
+      <c r="H8" t="s">
+        <v>406</v>
       </c>
       <c r="I8" t="s">
         <v>26</v>
       </c>
-      <c r="K8">
-        <v>118</v>
+      <c r="K8" t="s">
+        <v>352</v>
       </c>
       <c r="L8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9">
-        <v>91</v>
+      <c r="B9" t="s">
+        <v>407</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="E9">
-        <v>21</v>
+      <c r="E9" t="s">
+        <v>266</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="H9">
-        <v>83</v>
+      <c r="H9" t="s">
+        <v>399</v>
       </c>
       <c r="I9" t="s">
         <v>6</v>
       </c>
-      <c r="K9">
-        <v>122</v>
+      <c r="K9" t="s">
+        <v>356</v>
       </c>
       <c r="L9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10">
-        <v>92</v>
+      <c r="B10" t="s">
+        <v>408</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="E10">
-        <v>22</v>
+      <c r="E10" t="s">
+        <v>267</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="H10">
-        <v>17</v>
+      <c r="H10" t="s">
+        <v>262</v>
       </c>
       <c r="I10" t="s">
         <v>45</v>
       </c>
-      <c r="K10">
-        <v>126</v>
+      <c r="K10" t="s">
+        <v>360</v>
       </c>
       <c r="L10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11">
-        <v>10</v>
+      <c r="B11" t="s">
+        <v>255</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="E11">
-        <v>25</v>
+      <c r="E11" t="s">
+        <v>270</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="H11">
-        <v>31</v>
+      <c r="H11" t="s">
+        <v>276</v>
       </c>
       <c r="I11" t="s">
         <v>45</v>
       </c>
-      <c r="K11">
-        <v>130</v>
+      <c r="K11" t="s">
+        <v>364</v>
       </c>
       <c r="L11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="E12">
-        <v>26</v>
+      <c r="E12" t="s">
+        <v>271</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="H12">
-        <v>48</v>
+      <c r="H12" t="s">
+        <v>293</v>
       </c>
       <c r="I12" t="s">
         <v>45</v>
       </c>
-      <c r="K12">
-        <v>135</v>
+      <c r="K12" t="s">
+        <v>369</v>
       </c>
       <c r="L12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="E13">
-        <v>29</v>
+      <c r="E13" t="s">
+        <v>274</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="H13">
-        <v>81</v>
+      <c r="H13" t="s">
+        <v>326</v>
       </c>
       <c r="I13" t="s">
         <v>45</v>
       </c>
-      <c r="K13">
-        <v>139</v>
+      <c r="K13" t="s">
+        <v>373</v>
       </c>
       <c r="L13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="E14">
-        <v>32</v>
+      <c r="E14" t="s">
+        <v>277</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="H14">
-        <v>93</v>
+      <c r="H14" t="s">
+        <v>409</v>
       </c>
       <c r="I14" t="s">
         <v>35</v>
       </c>
-      <c r="K14">
-        <v>143</v>
+      <c r="K14" t="s">
+        <v>377</v>
       </c>
       <c r="L14" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="E15">
-        <v>35</v>
+      <c r="E15" t="s">
+        <v>280</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="H15">
-        <v>96</v>
+      <c r="H15" t="s">
+        <v>330</v>
       </c>
       <c r="I15" t="s">
         <v>42</v>
       </c>
-      <c r="K15">
-        <v>147</v>
+      <c r="K15" t="s">
+        <v>381</v>
       </c>
       <c r="L15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="E16">
-        <v>36</v>
+      <c r="E16" t="s">
+        <v>281</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="H16">
-        <v>95</v>
+      <c r="H16" t="s">
+        <v>329</v>
       </c>
       <c r="I16" t="s">
         <v>40</v>
       </c>
-      <c r="K16">
-        <v>151</v>
+      <c r="K16" t="s">
+        <v>385</v>
       </c>
       <c r="L16" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="17" spans="5:12">
-      <c r="E17">
-        <v>39</v>
+      <c r="E17" t="s">
+        <v>284</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="H17">
-        <v>3</v>
+      <c r="H17" t="s">
+        <v>248</v>
       </c>
       <c r="I17" t="s">
         <v>9</v>
       </c>
-      <c r="K17">
-        <v>155</v>
+      <c r="K17" t="s">
+        <v>389</v>
       </c>
       <c r="L17" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="18" spans="5:12">
-      <c r="E18">
-        <v>40</v>
+      <c r="E18" t="s">
+        <v>285</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="H18">
-        <v>30</v>
+      <c r="H18" t="s">
+        <v>275</v>
       </c>
       <c r="I18" t="s">
         <v>9</v>
       </c>
-      <c r="K18">
-        <v>159</v>
+      <c r="K18" t="s">
+        <v>393</v>
       </c>
       <c r="L18" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="5:12">
-      <c r="E19">
-        <v>43</v>
+      <c r="E19" t="s">
+        <v>288</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="H19">
-        <v>101</v>
+      <c r="H19" t="s">
+        <v>335</v>
       </c>
       <c r="I19" t="s">
         <v>9</v>
       </c>
-      <c r="K19">
-        <v>163</v>
+      <c r="K19" t="s">
+        <v>397</v>
       </c>
       <c r="L19" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20" spans="5:12">
-      <c r="E20">
-        <v>44</v>
+      <c r="E20" t="s">
+        <v>289</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="H20">
-        <v>114</v>
+      <c r="H20" t="s">
+        <v>348</v>
       </c>
       <c r="I20" t="s">
         <v>9</v>
       </c>
-      <c r="K20">
-        <v>98</v>
+      <c r="K20" t="s">
+        <v>332</v>
       </c>
       <c r="L20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="5:12">
-      <c r="E21">
-        <v>47</v>
+      <c r="E21" t="s">
+        <v>292</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="H21">
-        <v>115</v>
+      <c r="H21" t="s">
+        <v>349</v>
       </c>
       <c r="I21" t="s">
         <v>9</v>
       </c>
-      <c r="K21">
-        <v>103</v>
+      <c r="K21" t="s">
+        <v>337</v>
       </c>
       <c r="L21" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="5:12">
-      <c r="E22">
-        <v>49</v>
+      <c r="E22" t="s">
+        <v>294</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="H22">
-        <v>132</v>
+      <c r="H22" t="s">
+        <v>366</v>
       </c>
       <c r="I22" t="s">
         <v>9</v>
       </c>
-      <c r="K22">
-        <v>107</v>
+      <c r="K22" t="s">
+        <v>341</v>
       </c>
       <c r="L22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="23" spans="5:12">
-      <c r="E23">
-        <v>52</v>
+      <c r="E23" t="s">
+        <v>297</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="H23">
-        <v>12</v>
+      <c r="H23" t="s">
+        <v>257</v>
       </c>
       <c r="I23" t="s">
         <v>37</v>
       </c>
-      <c r="K23">
-        <v>111</v>
+      <c r="K23" t="s">
+        <v>345</v>
       </c>
       <c r="L23" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="5:12">
-      <c r="E24">
-        <v>53</v>
+      <c r="E24" t="s">
+        <v>298</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="H24">
-        <v>82</v>
+      <c r="H24" t="s">
+        <v>327</v>
       </c>
       <c r="I24" t="s">
         <v>111</v>
       </c>
-      <c r="K24">
-        <v>117</v>
+      <c r="K24" t="s">
+        <v>351</v>
       </c>
       <c r="L24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="5:12">
-      <c r="E25">
-        <v>56</v>
+      <c r="E25" t="s">
+        <v>301</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="H25">
-        <v>5</v>
+      <c r="H25" t="s">
+        <v>250</v>
       </c>
       <c r="I25" t="s">
         <v>14</v>
       </c>
-      <c r="K25">
-        <v>121</v>
+      <c r="K25" t="s">
+        <v>355</v>
       </c>
       <c r="L25" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="5:12">
-      <c r="E26">
-        <v>57</v>
+      <c r="E26" t="s">
+        <v>302</v>
       </c>
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="H26">
-        <v>6</v>
+      <c r="H26" t="s">
+        <v>251</v>
       </c>
       <c r="I26" t="s">
         <v>18</v>
       </c>
-      <c r="K26">
-        <v>125</v>
+      <c r="K26" t="s">
+        <v>359</v>
       </c>
       <c r="L26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="5:12">
-      <c r="E27">
-        <v>60</v>
+      <c r="E27" t="s">
+        <v>305</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="H27">
-        <v>11</v>
+      <c r="H27" t="s">
+        <v>256</v>
       </c>
       <c r="I27" t="s">
         <v>33</v>
       </c>
-      <c r="K27">
-        <v>129</v>
+      <c r="K27" t="s">
+        <v>363</v>
       </c>
       <c r="L27" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="28" spans="5:12">
-      <c r="E28">
-        <v>61</v>
+      <c r="E28" t="s">
+        <v>306</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="K28">
-        <v>134</v>
+      <c r="K28" t="s">
+        <v>368</v>
       </c>
       <c r="L28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="29" spans="5:12">
-      <c r="E29">
-        <v>64</v>
+      <c r="E29" t="s">
+        <v>309</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="K29">
-        <v>138</v>
+      <c r="K29" t="s">
+        <v>372</v>
       </c>
       <c r="L29" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="30" spans="5:12">
-      <c r="E30">
-        <v>65</v>
+      <c r="E30" t="s">
+        <v>310</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="K30">
-        <v>142</v>
+      <c r="K30" t="s">
+        <v>376</v>
       </c>
       <c r="L30" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="31" spans="5:12">
-      <c r="E31">
-        <v>68</v>
+      <c r="E31" t="s">
+        <v>313</v>
       </c>
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="K31">
-        <v>146</v>
+      <c r="K31" t="s">
+        <v>380</v>
       </c>
       <c r="L31" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" spans="5:12">
-      <c r="E32">
-        <v>69</v>
+      <c r="E32" t="s">
+        <v>314</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="K32">
-        <v>150</v>
+      <c r="K32" t="s">
+        <v>384</v>
       </c>
       <c r="L32" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="33" spans="5:12">
-      <c r="E33">
-        <v>72</v>
+      <c r="E33" t="s">
+        <v>317</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="K33">
-        <v>154</v>
+      <c r="K33" t="s">
+        <v>388</v>
       </c>
       <c r="L33" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="5:12">
-      <c r="E34">
-        <v>73</v>
+      <c r="E34" t="s">
+        <v>318</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="K34">
-        <v>158</v>
+      <c r="K34" t="s">
+        <v>392</v>
       </c>
       <c r="L34" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="35" spans="5:12">
-      <c r="E35">
-        <v>76</v>
+      <c r="E35" t="s">
+        <v>321</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="K35">
-        <v>162</v>
+      <c r="K35" t="s">
+        <v>396</v>
       </c>
       <c r="L35" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="36" spans="5:12">
-      <c r="E36">
-        <v>77</v>
+      <c r="E36" t="s">
+        <v>322</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="K36">
-        <v>15</v>
+      <c r="K36" t="s">
+        <v>260</v>
       </c>
       <c r="L36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="37" spans="5:12">
-      <c r="E37">
-        <v>80</v>
+      <c r="E37" t="s">
+        <v>325</v>
       </c>
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="K37">
-        <v>20</v>
+      <c r="K37" t="s">
+        <v>265</v>
       </c>
       <c r="L37" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="5:12">
-      <c r="E38">
-        <v>86</v>
+      <c r="E38" t="s">
+        <v>402</v>
       </c>
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="K38">
-        <v>24</v>
+      <c r="K38" t="s">
+        <v>269</v>
       </c>
       <c r="L38" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="39" spans="5:12">
-      <c r="E39">
-        <v>100</v>
+      <c r="E39" t="s">
+        <v>334</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="K39">
-        <v>28</v>
+      <c r="K39" t="s">
+        <v>273</v>
       </c>
       <c r="L39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40" spans="5:12">
-      <c r="E40">
-        <v>105</v>
+      <c r="E40" t="s">
+        <v>339</v>
       </c>
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="K40">
-        <v>34</v>
+      <c r="K40" t="s">
+        <v>279</v>
       </c>
       <c r="L40" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="41" spans="5:12">
-      <c r="E41">
-        <v>109</v>
+      <c r="E41" t="s">
+        <v>343</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="K41">
-        <v>38</v>
+      <c r="K41" t="s">
+        <v>283</v>
       </c>
       <c r="L41" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="42" spans="5:12">
-      <c r="E42">
-        <v>113</v>
+      <c r="E42" t="s">
+        <v>347</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="K42">
-        <v>42</v>
+      <c r="K42" t="s">
+        <v>287</v>
       </c>
       <c r="L42" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="43" spans="5:12">
-      <c r="E43">
-        <v>119</v>
+      <c r="E43" t="s">
+        <v>353</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="K43">
-        <v>46</v>
+      <c r="K43" t="s">
+        <v>291</v>
       </c>
       <c r="L43" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="44" spans="5:12">
-      <c r="E44">
-        <v>123</v>
+      <c r="E44" t="s">
+        <v>357</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="K44">
-        <v>51</v>
+      <c r="K44" t="s">
+        <v>296</v>
       </c>
       <c r="L44" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="45" spans="5:12">
-      <c r="E45">
-        <v>127</v>
+      <c r="E45" t="s">
+        <v>361</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="K45">
-        <v>55</v>
+      <c r="K45" t="s">
+        <v>300</v>
       </c>
       <c r="L45" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="5:12">
-      <c r="E46">
-        <v>131</v>
+      <c r="E46" t="s">
+        <v>365</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="K46">
-        <v>59</v>
+      <c r="K46" t="s">
+        <v>304</v>
       </c>
       <c r="L46" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="47" spans="5:12">
-      <c r="E47">
-        <v>136</v>
+      <c r="E47" t="s">
+        <v>370</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="K47">
-        <v>63</v>
+      <c r="K47" t="s">
+        <v>308</v>
       </c>
       <c r="L47" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="5:12">
-      <c r="E48">
-        <v>140</v>
+      <c r="E48" t="s">
+        <v>374</v>
       </c>
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="K48">
-        <v>67</v>
+      <c r="K48" t="s">
+        <v>312</v>
       </c>
       <c r="L48" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="49" spans="5:12">
-      <c r="E49">
-        <v>144</v>
+      <c r="E49" t="s">
+        <v>378</v>
       </c>
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="K49">
-        <v>71</v>
+      <c r="K49" t="s">
+        <v>316</v>
       </c>
       <c r="L49" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="50" spans="5:12">
-      <c r="E50">
-        <v>148</v>
+      <c r="E50" t="s">
+        <v>382</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="K50">
-        <v>75</v>
+      <c r="K50" t="s">
+        <v>320</v>
       </c>
       <c r="L50" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="51" spans="5:12">
-      <c r="E51">
-        <v>152</v>
+      <c r="E51" t="s">
+        <v>386</v>
       </c>
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="K51">
-        <v>79</v>
+      <c r="K51" t="s">
+        <v>324</v>
       </c>
       <c r="L51" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="52" spans="5:12">
-      <c r="E52">
-        <v>156</v>
+      <c r="E52" t="s">
+        <v>390</v>
       </c>
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="K52">
-        <v>14</v>
+      <c r="K52" t="s">
+        <v>259</v>
       </c>
       <c r="L52" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="53" spans="5:12">
-      <c r="E53">
-        <v>160</v>
+      <c r="E53" t="s">
+        <v>394</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="K53">
-        <v>19</v>
+      <c r="K53" t="s">
+        <v>264</v>
       </c>
       <c r="L53" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="54" spans="5:12">
-      <c r="E54">
-        <v>164</v>
+      <c r="E54" t="s">
+        <v>398</v>
       </c>
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="K54">
-        <v>23</v>
+      <c r="K54" t="s">
+        <v>268</v>
       </c>
       <c r="L54" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="5:12">
-      <c r="E55">
-        <v>94</v>
+      <c r="E55" t="s">
+        <v>328</v>
       </c>
       <c r="F55" t="s">
         <v>39</v>
       </c>
-      <c r="K55">
-        <v>27</v>
+      <c r="K55" t="s">
+        <v>272</v>
       </c>
       <c r="L55" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="56" spans="5:12">
-      <c r="E56">
-        <v>97</v>
+      <c r="E56" t="s">
+        <v>331</v>
       </c>
       <c r="F56" t="s">
         <v>13</v>
       </c>
-      <c r="K56">
-        <v>33</v>
+      <c r="K56" t="s">
+        <v>278</v>
       </c>
       <c r="L56" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="57" spans="5:12">
-      <c r="E57">
-        <v>102</v>
+      <c r="E57" t="s">
+        <v>336</v>
       </c>
       <c r="F57" t="s">
         <v>13</v>
       </c>
-      <c r="K57">
-        <v>37</v>
+      <c r="K57" t="s">
+        <v>282</v>
       </c>
       <c r="L57" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="58" spans="5:12">
-      <c r="E58">
-        <v>106</v>
+      <c r="E58" t="s">
+        <v>340</v>
       </c>
       <c r="F58" t="s">
         <v>13</v>
       </c>
-      <c r="K58">
-        <v>41</v>
+      <c r="K58" t="s">
+        <v>286</v>
       </c>
       <c r="L58" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="59" spans="5:12">
-      <c r="E59">
-        <v>110</v>
+      <c r="E59" t="s">
+        <v>344</v>
       </c>
       <c r="F59" t="s">
         <v>13</v>
       </c>
-      <c r="K59">
-        <v>45</v>
+      <c r="K59" t="s">
+        <v>290</v>
       </c>
       <c r="L59" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="60" spans="5:12">
-      <c r="E60">
-        <v>116</v>
+      <c r="E60" t="s">
+        <v>350</v>
       </c>
       <c r="F60" t="s">
         <v>13</v>
       </c>
-      <c r="K60">
-        <v>50</v>
+      <c r="K60" t="s">
+        <v>295</v>
       </c>
       <c r="L60" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="61" spans="5:12">
-      <c r="E61">
-        <v>120</v>
+      <c r="E61" t="s">
+        <v>354</v>
       </c>
       <c r="F61" t="s">
         <v>13</v>
       </c>
-      <c r="K61">
-        <v>54</v>
+      <c r="K61" t="s">
+        <v>299</v>
       </c>
       <c r="L61" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="62" spans="5:12">
-      <c r="E62">
-        <v>124</v>
+      <c r="E62" t="s">
+        <v>358</v>
       </c>
       <c r="F62" t="s">
         <v>13</v>
       </c>
-      <c r="K62">
-        <v>58</v>
+      <c r="K62" t="s">
+        <v>303</v>
       </c>
       <c r="L62" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="63" spans="5:12">
-      <c r="E63">
-        <v>128</v>
+      <c r="E63" t="s">
+        <v>362</v>
       </c>
       <c r="F63" t="s">
         <v>13</v>
       </c>
-      <c r="K63">
-        <v>62</v>
+      <c r="K63" t="s">
+        <v>307</v>
       </c>
       <c r="L63" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="64" spans="5:12">
-      <c r="E64">
-        <v>133</v>
+      <c r="E64" t="s">
+        <v>367</v>
       </c>
       <c r="F64" t="s">
         <v>13</v>
       </c>
-      <c r="K64">
-        <v>66</v>
+      <c r="K64" t="s">
+        <v>311</v>
       </c>
       <c r="L64" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="65" spans="5:12">
-      <c r="E65">
-        <v>137</v>
+      <c r="E65" t="s">
+        <v>371</v>
       </c>
       <c r="F65" t="s">
         <v>13</v>
       </c>
-      <c r="K65">
-        <v>70</v>
+      <c r="K65" t="s">
+        <v>315</v>
       </c>
       <c r="L65" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="66" spans="5:12">
-      <c r="E66">
-        <v>141</v>
+      <c r="E66" t="s">
+        <v>375</v>
       </c>
       <c r="F66" t="s">
         <v>13</v>
       </c>
-      <c r="K66">
-        <v>74</v>
+      <c r="K66" t="s">
+        <v>319</v>
       </c>
       <c r="L66" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="67" spans="5:12">
-      <c r="E67">
-        <v>145</v>
+      <c r="E67" t="s">
+        <v>379</v>
       </c>
       <c r="F67" t="s">
         <v>13</v>
       </c>
-      <c r="K67">
-        <v>78</v>
+      <c r="K67" t="s">
+        <v>323</v>
       </c>
       <c r="L67" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="68" spans="5:12">
-      <c r="E68">
-        <v>149</v>
+      <c r="E68" t="s">
+        <v>383</v>
       </c>
       <c r="F68" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="69" spans="5:12">
-      <c r="E69">
-        <v>153</v>
+      <c r="E69" t="s">
+        <v>387</v>
       </c>
       <c r="F69" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="70" spans="5:12">
-      <c r="E70">
-        <v>157</v>
+      <c r="E70" t="s">
+        <v>391</v>
       </c>
       <c r="F70" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="71" spans="5:12">
-      <c r="E71">
-        <v>161</v>
+      <c r="E71" t="s">
+        <v>395</v>
       </c>
       <c r="F71" t="s">
         <v>13</v>
@@ -5240,8 +5732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AJ71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P33" workbookViewId="0">
-      <selection activeCell="AG67" sqref="AC4:AG67"/>
+    <sheetView tabSelected="1" topLeftCell="V61" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4:AC67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5359,8 +5851,8 @@
       </c>
     </row>
     <row r="4" spans="2:36">
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>246</v>
       </c>
       <c r="C4" t="s">
         <v>160</v>
@@ -5374,8 +5866,8 @@
       <c r="F4" t="s">
         <v>159</v>
       </c>
-      <c r="K4">
-        <v>4</v>
+      <c r="K4" t="s">
+        <v>249</v>
       </c>
       <c r="L4" t="s">
         <v>167</v>
@@ -5389,8 +5881,8 @@
       <c r="O4" t="s">
         <v>159</v>
       </c>
-      <c r="T4">
-        <v>9</v>
+      <c r="T4" t="s">
+        <v>254</v>
       </c>
       <c r="U4" t="s">
         <v>28</v>
@@ -5404,8 +5896,8 @@
       <c r="X4" t="s">
         <v>159</v>
       </c>
-      <c r="AC4">
-        <v>99</v>
+      <c r="AC4" t="s">
+        <v>333</v>
       </c>
       <c r="AD4" t="s">
         <v>47</v>
@@ -5421,8 +5913,8 @@
       </c>
     </row>
     <row r="5" spans="2:36">
-      <c r="B5">
-        <v>2</v>
+      <c r="B5" t="s">
+        <v>247</v>
       </c>
       <c r="C5" t="s">
         <v>161</v>
@@ -5436,8 +5928,8 @@
       <c r="F5" t="s">
         <v>159</v>
       </c>
-      <c r="K5">
-        <v>7</v>
+      <c r="K5" t="s">
+        <v>252</v>
       </c>
       <c r="L5" t="s">
         <v>168</v>
@@ -5451,8 +5943,8 @@
       <c r="O5" t="s">
         <v>159</v>
       </c>
-      <c r="T5">
-        <v>87</v>
+      <c r="T5" t="s">
+        <v>403</v>
       </c>
       <c r="U5" t="s">
         <v>16</v>
@@ -5466,8 +5958,8 @@
       <c r="X5" t="s">
         <v>159</v>
       </c>
-      <c r="AC5">
-        <v>104</v>
+      <c r="AC5" t="s">
+        <v>338</v>
       </c>
       <c r="AD5" t="s">
         <v>52</v>
@@ -5483,8 +5975,8 @@
       </c>
     </row>
     <row r="6" spans="2:36">
-      <c r="B6">
-        <v>84</v>
+      <c r="B6" t="s">
+        <v>400</v>
       </c>
       <c r="C6" t="s">
         <v>162</v>
@@ -5498,8 +5990,8 @@
       <c r="F6" t="s">
         <v>159</v>
       </c>
-      <c r="K6">
-        <v>13</v>
+      <c r="K6" t="s">
+        <v>258</v>
       </c>
       <c r="L6" t="s">
         <v>169</v>
@@ -5513,8 +6005,8 @@
       <c r="O6" t="s">
         <v>159</v>
       </c>
-      <c r="T6">
-        <v>88</v>
+      <c r="T6" t="s">
+        <v>404</v>
       </c>
       <c r="U6" t="s">
         <v>20</v>
@@ -5528,8 +6020,8 @@
       <c r="X6" t="s">
         <v>159</v>
       </c>
-      <c r="AC6">
-        <v>108</v>
+      <c r="AC6" t="s">
+        <v>342</v>
       </c>
       <c r="AD6" t="s">
         <v>56</v>
@@ -5545,8 +6037,8 @@
       </c>
     </row>
     <row r="7" spans="2:36">
-      <c r="B7">
-        <v>85</v>
+      <c r="B7" t="s">
+        <v>401</v>
       </c>
       <c r="C7" t="s">
         <v>163</v>
@@ -5560,8 +6052,8 @@
       <c r="F7" t="s">
         <v>159</v>
       </c>
-      <c r="K7">
-        <v>16</v>
+      <c r="K7" t="s">
+        <v>261</v>
       </c>
       <c r="L7" t="s">
         <v>170</v>
@@ -5575,8 +6067,8 @@
       <c r="O7" t="s">
         <v>159</v>
       </c>
-      <c r="T7">
-        <v>89</v>
+      <c r="T7" t="s">
+        <v>405</v>
       </c>
       <c r="U7" t="s">
         <v>22</v>
@@ -5590,8 +6082,8 @@
       <c r="X7" t="s">
         <v>159</v>
       </c>
-      <c r="AC7">
-        <v>112</v>
+      <c r="AC7" t="s">
+        <v>346</v>
       </c>
       <c r="AD7" t="s">
         <v>60</v>
@@ -5607,8 +6099,8 @@
       </c>
     </row>
     <row r="8" spans="2:36">
-      <c r="B8">
-        <v>8</v>
+      <c r="B8" t="s">
+        <v>253</v>
       </c>
       <c r="C8" t="s">
         <v>164</v>
@@ -5622,8 +6114,8 @@
       <c r="F8" t="s">
         <v>159</v>
       </c>
-      <c r="K8">
-        <v>18</v>
+      <c r="K8" t="s">
+        <v>263</v>
       </c>
       <c r="L8" t="s">
         <v>171</v>
@@ -5637,8 +6129,8 @@
       <c r="O8" t="s">
         <v>159</v>
       </c>
-      <c r="T8">
-        <v>90</v>
+      <c r="T8" t="s">
+        <v>406</v>
       </c>
       <c r="U8" t="s">
         <v>26</v>
@@ -5652,8 +6144,8 @@
       <c r="X8" t="s">
         <v>159</v>
       </c>
-      <c r="AC8">
-        <v>118</v>
+      <c r="AC8" t="s">
+        <v>352</v>
       </c>
       <c r="AD8" t="s">
         <v>65</v>
@@ -5669,8 +6161,8 @@
       </c>
     </row>
     <row r="9" spans="2:36">
-      <c r="B9">
-        <v>91</v>
+      <c r="B9" t="s">
+        <v>407</v>
       </c>
       <c r="C9" t="s">
         <v>165</v>
@@ -5684,8 +6176,8 @@
       <c r="F9" t="s">
         <v>159</v>
       </c>
-      <c r="K9">
-        <v>21</v>
+      <c r="K9" t="s">
+        <v>266</v>
       </c>
       <c r="L9" t="s">
         <v>172</v>
@@ -5699,8 +6191,8 @@
       <c r="O9" t="s">
         <v>159</v>
       </c>
-      <c r="T9">
-        <v>83</v>
+      <c r="T9" t="s">
+        <v>399</v>
       </c>
       <c r="U9" t="s">
         <v>6</v>
@@ -5714,8 +6206,8 @@
       <c r="X9" t="s">
         <v>159</v>
       </c>
-      <c r="AC9">
-        <v>122</v>
+      <c r="AC9" t="s">
+        <v>356</v>
       </c>
       <c r="AD9" t="s">
         <v>69</v>
@@ -5731,8 +6223,8 @@
       </c>
     </row>
     <row r="10" spans="2:36">
-      <c r="B10">
-        <v>92</v>
+      <c r="B10" t="s">
+        <v>408</v>
       </c>
       <c r="C10" t="s">
         <v>166</v>
@@ -5746,8 +6238,8 @@
       <c r="F10" t="s">
         <v>159</v>
       </c>
-      <c r="K10">
-        <v>22</v>
+      <c r="K10" t="s">
+        <v>267</v>
       </c>
       <c r="L10" t="s">
         <v>173</v>
@@ -5761,8 +6253,8 @@
       <c r="O10" t="s">
         <v>159</v>
       </c>
-      <c r="T10">
-        <v>17</v>
+      <c r="T10" t="s">
+        <v>262</v>
       </c>
       <c r="U10" t="s">
         <v>242</v>
@@ -5776,8 +6268,8 @@
       <c r="X10" t="s">
         <v>159</v>
       </c>
-      <c r="AC10">
-        <v>126</v>
+      <c r="AC10" t="s">
+        <v>360</v>
       </c>
       <c r="AD10" t="s">
         <v>73</v>
@@ -5793,8 +6285,8 @@
       </c>
     </row>
     <row r="11" spans="2:36">
-      <c r="B11">
-        <v>10</v>
+      <c r="B11" t="s">
+        <v>255</v>
       </c>
       <c r="C11" t="s">
         <v>31</v>
@@ -5808,8 +6300,8 @@
       <c r="F11" t="s">
         <v>159</v>
       </c>
-      <c r="K11">
-        <v>25</v>
+      <c r="K11" t="s">
+        <v>270</v>
       </c>
       <c r="L11" t="s">
         <v>174</v>
@@ -5823,8 +6315,8 @@
       <c r="O11" t="s">
         <v>159</v>
       </c>
-      <c r="T11">
-        <v>31</v>
+      <c r="T11" t="s">
+        <v>276</v>
       </c>
       <c r="U11" t="s">
         <v>243</v>
@@ -5838,8 +6330,8 @@
       <c r="X11" t="s">
         <v>159</v>
       </c>
-      <c r="AC11">
-        <v>130</v>
+      <c r="AC11" t="s">
+        <v>364</v>
       </c>
       <c r="AD11" t="s">
         <v>77</v>
@@ -5855,8 +6347,8 @@
       </c>
     </row>
     <row r="12" spans="2:36">
-      <c r="K12">
-        <v>26</v>
+      <c r="K12" t="s">
+        <v>271</v>
       </c>
       <c r="L12" t="s">
         <v>175</v>
@@ -5870,8 +6362,8 @@
       <c r="O12" t="s">
         <v>159</v>
       </c>
-      <c r="T12">
-        <v>48</v>
+      <c r="T12" t="s">
+        <v>293</v>
       </c>
       <c r="U12" t="s">
         <v>244</v>
@@ -5885,8 +6377,8 @@
       <c r="X12" t="s">
         <v>159</v>
       </c>
-      <c r="AC12">
-        <v>135</v>
+      <c r="AC12" t="s">
+        <v>369</v>
       </c>
       <c r="AD12" t="s">
         <v>81</v>
@@ -5902,8 +6394,8 @@
       </c>
     </row>
     <row r="13" spans="2:36">
-      <c r="K13">
-        <v>29</v>
+      <c r="K13" t="s">
+        <v>274</v>
       </c>
       <c r="L13" t="s">
         <v>176</v>
@@ -5917,8 +6409,8 @@
       <c r="O13" t="s">
         <v>159</v>
       </c>
-      <c r="T13">
-        <v>81</v>
+      <c r="T13" t="s">
+        <v>326</v>
       </c>
       <c r="U13" t="s">
         <v>245</v>
@@ -5932,8 +6424,8 @@
       <c r="X13" t="s">
         <v>159</v>
       </c>
-      <c r="AC13">
-        <v>139</v>
+      <c r="AC13" t="s">
+        <v>373</v>
       </c>
       <c r="AD13" t="s">
         <v>85</v>
@@ -5949,8 +6441,8 @@
       </c>
     </row>
     <row r="14" spans="2:36">
-      <c r="K14">
-        <v>32</v>
+      <c r="K14" t="s">
+        <v>277</v>
       </c>
       <c r="L14" t="s">
         <v>177</v>
@@ -5964,8 +6456,8 @@
       <c r="O14" t="s">
         <v>159</v>
       </c>
-      <c r="T14">
-        <v>93</v>
+      <c r="T14" t="s">
+        <v>409</v>
       </c>
       <c r="U14" t="s">
         <v>35</v>
@@ -5979,8 +6471,8 @@
       <c r="X14" t="s">
         <v>159</v>
       </c>
-      <c r="AC14">
-        <v>143</v>
+      <c r="AC14" t="s">
+        <v>377</v>
       </c>
       <c r="AD14" t="s">
         <v>89</v>
@@ -5996,8 +6488,8 @@
       </c>
     </row>
     <row r="15" spans="2:36">
-      <c r="K15">
-        <v>35</v>
+      <c r="K15" t="s">
+        <v>280</v>
       </c>
       <c r="L15" t="s">
         <v>178</v>
@@ -6011,8 +6503,8 @@
       <c r="O15" t="s">
         <v>159</v>
       </c>
-      <c r="T15">
-        <v>96</v>
+      <c r="T15" t="s">
+        <v>330</v>
       </c>
       <c r="U15" t="s">
         <v>42</v>
@@ -6026,8 +6518,8 @@
       <c r="X15" t="s">
         <v>159</v>
       </c>
-      <c r="AC15">
-        <v>147</v>
+      <c r="AC15" t="s">
+        <v>381</v>
       </c>
       <c r="AD15" t="s">
         <v>93</v>
@@ -6043,8 +6535,8 @@
       </c>
     </row>
     <row r="16" spans="2:36">
-      <c r="K16">
-        <v>36</v>
+      <c r="K16" t="s">
+        <v>281</v>
       </c>
       <c r="L16" t="s">
         <v>179</v>
@@ -6058,8 +6550,8 @@
       <c r="O16" t="s">
         <v>159</v>
       </c>
-      <c r="T16">
-        <v>95</v>
+      <c r="T16" t="s">
+        <v>329</v>
       </c>
       <c r="U16" t="s">
         <v>40</v>
@@ -6073,8 +6565,8 @@
       <c r="X16" t="s">
         <v>159</v>
       </c>
-      <c r="AC16">
-        <v>151</v>
+      <c r="AC16" t="s">
+        <v>385</v>
       </c>
       <c r="AD16" t="s">
         <v>97</v>
@@ -6090,8 +6582,8 @@
       </c>
     </row>
     <row r="17" spans="11:33">
-      <c r="K17">
-        <v>39</v>
+      <c r="K17" t="s">
+        <v>284</v>
       </c>
       <c r="L17" t="s">
         <v>180</v>
@@ -6105,8 +6597,8 @@
       <c r="O17" t="s">
         <v>159</v>
       </c>
-      <c r="T17">
-        <v>3</v>
+      <c r="T17" t="s">
+        <v>248</v>
       </c>
       <c r="U17" t="s">
         <v>235</v>
@@ -6120,8 +6612,8 @@
       <c r="X17" t="s">
         <v>159</v>
       </c>
-      <c r="AC17">
-        <v>155</v>
+      <c r="AC17" t="s">
+        <v>389</v>
       </c>
       <c r="AD17" t="s">
         <v>101</v>
@@ -6137,8 +6629,8 @@
       </c>
     </row>
     <row r="18" spans="11:33">
-      <c r="K18">
-        <v>40</v>
+      <c r="K18" t="s">
+        <v>285</v>
       </c>
       <c r="L18" t="s">
         <v>181</v>
@@ -6152,8 +6644,8 @@
       <c r="O18" t="s">
         <v>159</v>
       </c>
-      <c r="T18">
-        <v>30</v>
+      <c r="T18" t="s">
+        <v>275</v>
       </c>
       <c r="U18" t="s">
         <v>236</v>
@@ -6167,8 +6659,8 @@
       <c r="X18" t="s">
         <v>159</v>
       </c>
-      <c r="AC18">
-        <v>159</v>
+      <c r="AC18" t="s">
+        <v>393</v>
       </c>
       <c r="AD18" t="s">
         <v>105</v>
@@ -6184,8 +6676,8 @@
       </c>
     </row>
     <row r="19" spans="11:33">
-      <c r="K19">
-        <v>43</v>
+      <c r="K19" t="s">
+        <v>288</v>
       </c>
       <c r="L19" t="s">
         <v>182</v>
@@ -6199,8 +6691,8 @@
       <c r="O19" t="s">
         <v>159</v>
       </c>
-      <c r="T19">
-        <v>101</v>
+      <c r="T19" t="s">
+        <v>335</v>
       </c>
       <c r="U19" t="s">
         <v>237</v>
@@ -6214,8 +6706,8 @@
       <c r="X19" t="s">
         <v>159</v>
       </c>
-      <c r="AC19">
-        <v>163</v>
+      <c r="AC19" t="s">
+        <v>397</v>
       </c>
       <c r="AD19" t="s">
         <v>110</v>
@@ -6231,8 +6723,8 @@
       </c>
     </row>
     <row r="20" spans="11:33">
-      <c r="K20">
-        <v>44</v>
+      <c r="K20" t="s">
+        <v>289</v>
       </c>
       <c r="L20" t="s">
         <v>183</v>
@@ -6246,8 +6738,8 @@
       <c r="O20" t="s">
         <v>159</v>
       </c>
-      <c r="T20">
-        <v>114</v>
+      <c r="T20" t="s">
+        <v>348</v>
       </c>
       <c r="U20" t="s">
         <v>238</v>
@@ -6261,8 +6753,8 @@
       <c r="X20" t="s">
         <v>159</v>
       </c>
-      <c r="AC20">
-        <v>98</v>
+      <c r="AC20" t="s">
+        <v>332</v>
       </c>
       <c r="AD20" t="s">
         <v>44</v>
@@ -6278,8 +6770,8 @@
       </c>
     </row>
     <row r="21" spans="11:33">
-      <c r="K21">
-        <v>47</v>
+      <c r="K21" t="s">
+        <v>292</v>
       </c>
       <c r="L21" t="s">
         <v>184</v>
@@ -6293,8 +6785,8 @@
       <c r="O21" t="s">
         <v>159</v>
       </c>
-      <c r="T21">
-        <v>115</v>
+      <c r="T21" t="s">
+        <v>349</v>
       </c>
       <c r="U21" t="s">
         <v>239</v>
@@ -6308,8 +6800,8 @@
       <c r="X21" t="s">
         <v>159</v>
       </c>
-      <c r="AC21">
-        <v>103</v>
+      <c r="AC21" t="s">
+        <v>337</v>
       </c>
       <c r="AD21" t="s">
         <v>51</v>
@@ -6325,8 +6817,8 @@
       </c>
     </row>
     <row r="22" spans="11:33">
-      <c r="K22">
-        <v>49</v>
+      <c r="K22" t="s">
+        <v>294</v>
       </c>
       <c r="L22" t="s">
         <v>185</v>
@@ -6340,8 +6832,8 @@
       <c r="O22" t="s">
         <v>159</v>
       </c>
-      <c r="T22">
-        <v>132</v>
+      <c r="T22" t="s">
+        <v>366</v>
       </c>
       <c r="U22" t="s">
         <v>240</v>
@@ -6355,8 +6847,8 @@
       <c r="X22" t="s">
         <v>159</v>
       </c>
-      <c r="AC22">
-        <v>107</v>
+      <c r="AC22" t="s">
+        <v>341</v>
       </c>
       <c r="AD22" t="s">
         <v>55</v>
@@ -6372,8 +6864,8 @@
       </c>
     </row>
     <row r="23" spans="11:33">
-      <c r="K23">
-        <v>52</v>
+      <c r="K23" t="s">
+        <v>297</v>
       </c>
       <c r="L23" t="s">
         <v>186</v>
@@ -6387,8 +6879,8 @@
       <c r="O23" t="s">
         <v>159</v>
       </c>
-      <c r="T23">
-        <v>12</v>
+      <c r="T23" t="s">
+        <v>257</v>
       </c>
       <c r="U23" t="s">
         <v>241</v>
@@ -6402,8 +6894,8 @@
       <c r="X23" t="s">
         <v>159</v>
       </c>
-      <c r="AC23">
-        <v>111</v>
+      <c r="AC23" t="s">
+        <v>345</v>
       </c>
       <c r="AD23" t="s">
         <v>59</v>
@@ -6419,8 +6911,8 @@
       </c>
     </row>
     <row r="24" spans="11:33">
-      <c r="K24">
-        <v>53</v>
+      <c r="K24" t="s">
+        <v>298</v>
       </c>
       <c r="L24" t="s">
         <v>187</v>
@@ -6434,8 +6926,8 @@
       <c r="O24" t="s">
         <v>159</v>
       </c>
-      <c r="T24">
-        <v>82</v>
+      <c r="T24" t="s">
+        <v>327</v>
       </c>
       <c r="U24" t="s">
         <v>111</v>
@@ -6449,8 +6941,8 @@
       <c r="X24" t="s">
         <v>159</v>
       </c>
-      <c r="AC24">
-        <v>117</v>
+      <c r="AC24" t="s">
+        <v>351</v>
       </c>
       <c r="AD24" t="s">
         <v>64</v>
@@ -6466,8 +6958,8 @@
       </c>
     </row>
     <row r="25" spans="11:33">
-      <c r="K25">
-        <v>56</v>
+      <c r="K25" t="s">
+        <v>301</v>
       </c>
       <c r="L25" t="s">
         <v>188</v>
@@ -6481,8 +6973,8 @@
       <c r="O25" t="s">
         <v>159</v>
       </c>
-      <c r="T25">
-        <v>5</v>
+      <c r="T25" t="s">
+        <v>250</v>
       </c>
       <c r="U25" t="s">
         <v>14</v>
@@ -6496,8 +6988,8 @@
       <c r="X25" t="s">
         <v>159</v>
       </c>
-      <c r="AC25">
-        <v>121</v>
+      <c r="AC25" t="s">
+        <v>355</v>
       </c>
       <c r="AD25" t="s">
         <v>68</v>
@@ -6513,8 +7005,8 @@
       </c>
     </row>
     <row r="26" spans="11:33">
-      <c r="K26">
-        <v>57</v>
+      <c r="K26" t="s">
+        <v>302</v>
       </c>
       <c r="L26" t="s">
         <v>189</v>
@@ -6528,8 +7020,8 @@
       <c r="O26" t="s">
         <v>159</v>
       </c>
-      <c r="T26">
-        <v>6</v>
+      <c r="T26" t="s">
+        <v>251</v>
       </c>
       <c r="U26" t="s">
         <v>18</v>
@@ -6543,8 +7035,8 @@
       <c r="X26" t="s">
         <v>159</v>
       </c>
-      <c r="AC26">
-        <v>125</v>
+      <c r="AC26" t="s">
+        <v>359</v>
       </c>
       <c r="AD26" t="s">
         <v>72</v>
@@ -6560,8 +7052,8 @@
       </c>
     </row>
     <row r="27" spans="11:33">
-      <c r="K27">
-        <v>60</v>
+      <c r="K27" t="s">
+        <v>305</v>
       </c>
       <c r="L27" t="s">
         <v>190</v>
@@ -6575,8 +7067,8 @@
       <c r="O27" t="s">
         <v>159</v>
       </c>
-      <c r="T27">
-        <v>11</v>
+      <c r="T27" t="s">
+        <v>256</v>
       </c>
       <c r="U27" t="s">
         <v>33</v>
@@ -6590,8 +7082,8 @@
       <c r="X27" t="s">
         <v>159</v>
       </c>
-      <c r="AC27">
-        <v>129</v>
+      <c r="AC27" t="s">
+        <v>363</v>
       </c>
       <c r="AD27" t="s">
         <v>76</v>
@@ -6607,8 +7099,8 @@
       </c>
     </row>
     <row r="28" spans="11:33">
-      <c r="K28">
-        <v>61</v>
+      <c r="K28" t="s">
+        <v>306</v>
       </c>
       <c r="L28" t="s">
         <v>191</v>
@@ -6622,8 +7114,8 @@
       <c r="O28" t="s">
         <v>159</v>
       </c>
-      <c r="AC28">
-        <v>134</v>
+      <c r="AC28" t="s">
+        <v>368</v>
       </c>
       <c r="AD28" t="s">
         <v>80</v>
@@ -6639,8 +7131,8 @@
       </c>
     </row>
     <row r="29" spans="11:33">
-      <c r="K29">
-        <v>64</v>
+      <c r="K29" t="s">
+        <v>309</v>
       </c>
       <c r="L29" t="s">
         <v>192</v>
@@ -6654,8 +7146,8 @@
       <c r="O29" t="s">
         <v>159</v>
       </c>
-      <c r="AC29">
-        <v>138</v>
+      <c r="AC29" t="s">
+        <v>372</v>
       </c>
       <c r="AD29" t="s">
         <v>84</v>
@@ -6671,8 +7163,8 @@
       </c>
     </row>
     <row r="30" spans="11:33">
-      <c r="K30">
-        <v>65</v>
+      <c r="K30" t="s">
+        <v>310</v>
       </c>
       <c r="L30" t="s">
         <v>193</v>
@@ -6686,8 +7178,8 @@
       <c r="O30" t="s">
         <v>159</v>
       </c>
-      <c r="AC30">
-        <v>142</v>
+      <c r="AC30" t="s">
+        <v>376</v>
       </c>
       <c r="AD30" t="s">
         <v>88</v>
@@ -6703,8 +7195,8 @@
       </c>
     </row>
     <row r="31" spans="11:33">
-      <c r="K31">
-        <v>68</v>
+      <c r="K31" t="s">
+        <v>313</v>
       </c>
       <c r="L31" t="s">
         <v>194</v>
@@ -6718,8 +7210,8 @@
       <c r="O31" t="s">
         <v>159</v>
       </c>
-      <c r="AC31">
-        <v>146</v>
+      <c r="AC31" t="s">
+        <v>380</v>
       </c>
       <c r="AD31" t="s">
         <v>92</v>
@@ -6735,8 +7227,8 @@
       </c>
     </row>
     <row r="32" spans="11:33">
-      <c r="K32">
-        <v>69</v>
+      <c r="K32" t="s">
+        <v>314</v>
       </c>
       <c r="L32" t="s">
         <v>195</v>
@@ -6750,8 +7242,8 @@
       <c r="O32" t="s">
         <v>159</v>
       </c>
-      <c r="AC32">
-        <v>150</v>
+      <c r="AC32" t="s">
+        <v>384</v>
       </c>
       <c r="AD32" t="s">
         <v>96</v>
@@ -6767,8 +7259,8 @@
       </c>
     </row>
     <row r="33" spans="11:33">
-      <c r="K33">
-        <v>72</v>
+      <c r="K33" t="s">
+        <v>317</v>
       </c>
       <c r="L33" t="s">
         <v>196</v>
@@ -6782,8 +7274,8 @@
       <c r="O33" t="s">
         <v>159</v>
       </c>
-      <c r="AC33">
-        <v>154</v>
+      <c r="AC33" t="s">
+        <v>388</v>
       </c>
       <c r="AD33" t="s">
         <v>100</v>
@@ -6799,8 +7291,8 @@
       </c>
     </row>
     <row r="34" spans="11:33">
-      <c r="K34">
-        <v>73</v>
+      <c r="K34" t="s">
+        <v>318</v>
       </c>
       <c r="L34" t="s">
         <v>197</v>
@@ -6814,8 +7306,8 @@
       <c r="O34" t="s">
         <v>159</v>
       </c>
-      <c r="AC34">
-        <v>158</v>
+      <c r="AC34" t="s">
+        <v>392</v>
       </c>
       <c r="AD34" t="s">
         <v>104</v>
@@ -6831,8 +7323,8 @@
       </c>
     </row>
     <row r="35" spans="11:33">
-      <c r="K35">
-        <v>76</v>
+      <c r="K35" t="s">
+        <v>321</v>
       </c>
       <c r="L35" t="s">
         <v>198</v>
@@ -6846,8 +7338,8 @@
       <c r="O35" t="s">
         <v>159</v>
       </c>
-      <c r="AC35">
-        <v>162</v>
+      <c r="AC35" t="s">
+        <v>396</v>
       </c>
       <c r="AD35" t="s">
         <v>108</v>
@@ -6863,8 +7355,8 @@
       </c>
     </row>
     <row r="36" spans="11:33">
-      <c r="K36">
-        <v>77</v>
+      <c r="K36" t="s">
+        <v>322</v>
       </c>
       <c r="L36" t="s">
         <v>199</v>
@@ -6878,8 +7370,8 @@
       <c r="O36" t="s">
         <v>159</v>
       </c>
-      <c r="AC36">
-        <v>15</v>
+      <c r="AC36" t="s">
+        <v>260</v>
       </c>
       <c r="AD36" t="s">
         <v>43</v>
@@ -6895,8 +7387,8 @@
       </c>
     </row>
     <row r="37" spans="11:33">
-      <c r="K37">
-        <v>80</v>
+      <c r="K37" t="s">
+        <v>325</v>
       </c>
       <c r="L37" t="s">
         <v>200</v>
@@ -6910,8 +7402,8 @@
       <c r="O37" t="s">
         <v>159</v>
       </c>
-      <c r="AC37">
-        <v>20</v>
+      <c r="AC37" t="s">
+        <v>265</v>
       </c>
       <c r="AD37" t="s">
         <v>50</v>
@@ -6927,8 +7419,8 @@
       </c>
     </row>
     <row r="38" spans="11:33">
-      <c r="K38">
-        <v>86</v>
+      <c r="K38" t="s">
+        <v>402</v>
       </c>
       <c r="L38" t="s">
         <v>201</v>
@@ -6942,8 +7434,8 @@
       <c r="O38" t="s">
         <v>159</v>
       </c>
-      <c r="AC38">
-        <v>24</v>
+      <c r="AC38" t="s">
+        <v>269</v>
       </c>
       <c r="AD38" t="s">
         <v>54</v>
@@ -6959,8 +7451,8 @@
       </c>
     </row>
     <row r="39" spans="11:33">
-      <c r="K39">
-        <v>100</v>
+      <c r="K39" t="s">
+        <v>334</v>
       </c>
       <c r="L39" t="s">
         <v>202</v>
@@ -6974,8 +7466,8 @@
       <c r="O39" t="s">
         <v>159</v>
       </c>
-      <c r="AC39">
-        <v>28</v>
+      <c r="AC39" t="s">
+        <v>273</v>
       </c>
       <c r="AD39" t="s">
         <v>58</v>
@@ -6991,8 +7483,8 @@
       </c>
     </row>
     <row r="40" spans="11:33">
-      <c r="K40">
-        <v>105</v>
+      <c r="K40" t="s">
+        <v>339</v>
       </c>
       <c r="L40" t="s">
         <v>203</v>
@@ -7006,8 +7498,8 @@
       <c r="O40" t="s">
         <v>159</v>
       </c>
-      <c r="AC40">
-        <v>34</v>
+      <c r="AC40" t="s">
+        <v>279</v>
       </c>
       <c r="AD40" t="s">
         <v>63</v>
@@ -7023,8 +7515,8 @@
       </c>
     </row>
     <row r="41" spans="11:33">
-      <c r="K41">
-        <v>109</v>
+      <c r="K41" t="s">
+        <v>343</v>
       </c>
       <c r="L41" t="s">
         <v>204</v>
@@ -7038,8 +7530,8 @@
       <c r="O41" t="s">
         <v>159</v>
       </c>
-      <c r="AC41">
-        <v>38</v>
+      <c r="AC41" t="s">
+        <v>283</v>
       </c>
       <c r="AD41" t="s">
         <v>67</v>
@@ -7055,8 +7547,8 @@
       </c>
     </row>
     <row r="42" spans="11:33">
-      <c r="K42">
-        <v>113</v>
+      <c r="K42" t="s">
+        <v>347</v>
       </c>
       <c r="L42" t="s">
         <v>205</v>
@@ -7070,8 +7562,8 @@
       <c r="O42" t="s">
         <v>159</v>
       </c>
-      <c r="AC42">
-        <v>42</v>
+      <c r="AC42" t="s">
+        <v>287</v>
       </c>
       <c r="AD42" t="s">
         <v>71</v>
@@ -7087,8 +7579,8 @@
       </c>
     </row>
     <row r="43" spans="11:33">
-      <c r="K43">
-        <v>119</v>
+      <c r="K43" t="s">
+        <v>353</v>
       </c>
       <c r="L43" t="s">
         <v>206</v>
@@ -7102,8 +7594,8 @@
       <c r="O43" t="s">
         <v>159</v>
       </c>
-      <c r="AC43">
-        <v>46</v>
+      <c r="AC43" t="s">
+        <v>291</v>
       </c>
       <c r="AD43" t="s">
         <v>75</v>
@@ -7119,8 +7611,8 @@
       </c>
     </row>
     <row r="44" spans="11:33">
-      <c r="K44">
-        <v>123</v>
+      <c r="K44" t="s">
+        <v>357</v>
       </c>
       <c r="L44" t="s">
         <v>207</v>
@@ -7134,8 +7626,8 @@
       <c r="O44" t="s">
         <v>159</v>
       </c>
-      <c r="AC44">
-        <v>51</v>
+      <c r="AC44" t="s">
+        <v>296</v>
       </c>
       <c r="AD44" t="s">
         <v>79</v>
@@ -7151,8 +7643,8 @@
       </c>
     </row>
     <row r="45" spans="11:33">
-      <c r="K45">
-        <v>127</v>
+      <c r="K45" t="s">
+        <v>361</v>
       </c>
       <c r="L45" t="s">
         <v>208</v>
@@ -7166,8 +7658,8 @@
       <c r="O45" t="s">
         <v>159</v>
       </c>
-      <c r="AC45">
-        <v>55</v>
+      <c r="AC45" t="s">
+        <v>300</v>
       </c>
       <c r="AD45" t="s">
         <v>83</v>
@@ -7183,8 +7675,8 @@
       </c>
     </row>
     <row r="46" spans="11:33">
-      <c r="K46">
-        <v>131</v>
+      <c r="K46" t="s">
+        <v>365</v>
       </c>
       <c r="L46" t="s">
         <v>209</v>
@@ -7198,8 +7690,8 @@
       <c r="O46" t="s">
         <v>159</v>
       </c>
-      <c r="AC46">
-        <v>59</v>
+      <c r="AC46" t="s">
+        <v>304</v>
       </c>
       <c r="AD46" t="s">
         <v>87</v>
@@ -7215,8 +7707,8 @@
       </c>
     </row>
     <row r="47" spans="11:33">
-      <c r="K47">
-        <v>136</v>
+      <c r="K47" t="s">
+        <v>370</v>
       </c>
       <c r="L47" t="s">
         <v>210</v>
@@ -7230,8 +7722,8 @@
       <c r="O47" t="s">
         <v>159</v>
       </c>
-      <c r="AC47">
-        <v>63</v>
+      <c r="AC47" t="s">
+        <v>308</v>
       </c>
       <c r="AD47" t="s">
         <v>91</v>
@@ -7247,8 +7739,8 @@
       </c>
     </row>
     <row r="48" spans="11:33">
-      <c r="K48">
-        <v>140</v>
+      <c r="K48" t="s">
+        <v>374</v>
       </c>
       <c r="L48" t="s">
         <v>211</v>
@@ -7262,8 +7754,8 @@
       <c r="O48" t="s">
         <v>159</v>
       </c>
-      <c r="AC48">
-        <v>67</v>
+      <c r="AC48" t="s">
+        <v>312</v>
       </c>
       <c r="AD48" t="s">
         <v>95</v>
@@ -7279,8 +7771,8 @@
       </c>
     </row>
     <row r="49" spans="11:33">
-      <c r="K49">
-        <v>144</v>
+      <c r="K49" t="s">
+        <v>378</v>
       </c>
       <c r="L49" t="s">
         <v>212</v>
@@ -7294,8 +7786,8 @@
       <c r="O49" t="s">
         <v>159</v>
       </c>
-      <c r="AC49">
-        <v>71</v>
+      <c r="AC49" t="s">
+        <v>316</v>
       </c>
       <c r="AD49" t="s">
         <v>99</v>
@@ -7311,8 +7803,8 @@
       </c>
     </row>
     <row r="50" spans="11:33">
-      <c r="K50">
-        <v>148</v>
+      <c r="K50" t="s">
+        <v>382</v>
       </c>
       <c r="L50" t="s">
         <v>213</v>
@@ -7326,8 +7818,8 @@
       <c r="O50" t="s">
         <v>159</v>
       </c>
-      <c r="AC50">
-        <v>75</v>
+      <c r="AC50" t="s">
+        <v>320</v>
       </c>
       <c r="AD50" t="s">
         <v>103</v>
@@ -7343,8 +7835,8 @@
       </c>
     </row>
     <row r="51" spans="11:33">
-      <c r="K51">
-        <v>152</v>
+      <c r="K51" t="s">
+        <v>386</v>
       </c>
       <c r="L51" t="s">
         <v>214</v>
@@ -7358,8 +7850,8 @@
       <c r="O51" t="s">
         <v>159</v>
       </c>
-      <c r="AC51">
-        <v>79</v>
+      <c r="AC51" t="s">
+        <v>324</v>
       </c>
       <c r="AD51" t="s">
         <v>107</v>
@@ -7375,8 +7867,8 @@
       </c>
     </row>
     <row r="52" spans="11:33">
-      <c r="K52">
-        <v>156</v>
+      <c r="K52" t="s">
+        <v>390</v>
       </c>
       <c r="L52" t="s">
         <v>215</v>
@@ -7390,8 +7882,8 @@
       <c r="O52" t="s">
         <v>159</v>
       </c>
-      <c r="AC52">
-        <v>14</v>
+      <c r="AC52" t="s">
+        <v>259</v>
       </c>
       <c r="AD52" t="s">
         <v>41</v>
@@ -7407,8 +7899,8 @@
       </c>
     </row>
     <row r="53" spans="11:33">
-      <c r="K53">
-        <v>160</v>
+      <c r="K53" t="s">
+        <v>394</v>
       </c>
       <c r="L53" t="s">
         <v>216</v>
@@ -7422,8 +7914,8 @@
       <c r="O53" t="s">
         <v>159</v>
       </c>
-      <c r="AC53">
-        <v>19</v>
+      <c r="AC53" t="s">
+        <v>264</v>
       </c>
       <c r="AD53" t="s">
         <v>48</v>
@@ -7439,8 +7931,8 @@
       </c>
     </row>
     <row r="54" spans="11:33">
-      <c r="K54">
-        <v>164</v>
+      <c r="K54" t="s">
+        <v>398</v>
       </c>
       <c r="L54" t="s">
         <v>217</v>
@@ -7454,8 +7946,8 @@
       <c r="O54" t="s">
         <v>159</v>
       </c>
-      <c r="AC54">
-        <v>23</v>
+      <c r="AC54" t="s">
+        <v>268</v>
       </c>
       <c r="AD54" t="s">
         <v>53</v>
@@ -7471,8 +7963,8 @@
       </c>
     </row>
     <row r="55" spans="11:33">
-      <c r="K55">
-        <v>94</v>
+      <c r="K55" t="s">
+        <v>328</v>
       </c>
       <c r="L55" t="s">
         <v>218</v>
@@ -7486,8 +7978,8 @@
       <c r="O55" t="s">
         <v>159</v>
       </c>
-      <c r="AC55">
-        <v>27</v>
+      <c r="AC55" t="s">
+        <v>272</v>
       </c>
       <c r="AD55" t="s">
         <v>57</v>
@@ -7503,8 +7995,8 @@
       </c>
     </row>
     <row r="56" spans="11:33">
-      <c r="K56">
-        <v>97</v>
+      <c r="K56" t="s">
+        <v>331</v>
       </c>
       <c r="L56" t="s">
         <v>219</v>
@@ -7518,8 +8010,8 @@
       <c r="O56" t="s">
         <v>159</v>
       </c>
-      <c r="AC56">
-        <v>33</v>
+      <c r="AC56" t="s">
+        <v>278</v>
       </c>
       <c r="AD56" t="s">
         <v>62</v>
@@ -7535,8 +8027,8 @@
       </c>
     </row>
     <row r="57" spans="11:33">
-      <c r="K57">
-        <v>102</v>
+      <c r="K57" t="s">
+        <v>336</v>
       </c>
       <c r="L57" t="s">
         <v>220</v>
@@ -7550,8 +8042,8 @@
       <c r="O57" t="s">
         <v>159</v>
       </c>
-      <c r="AC57">
-        <v>37</v>
+      <c r="AC57" t="s">
+        <v>282</v>
       </c>
       <c r="AD57" t="s">
         <v>66</v>
@@ -7567,8 +8059,8 @@
       </c>
     </row>
     <row r="58" spans="11:33">
-      <c r="K58">
-        <v>106</v>
+      <c r="K58" t="s">
+        <v>340</v>
       </c>
       <c r="L58" t="s">
         <v>221</v>
@@ -7582,8 +8074,8 @@
       <c r="O58" t="s">
         <v>159</v>
       </c>
-      <c r="AC58">
-        <v>41</v>
+      <c r="AC58" t="s">
+        <v>286</v>
       </c>
       <c r="AD58" t="s">
         <v>70</v>
@@ -7599,8 +8091,8 @@
       </c>
     </row>
     <row r="59" spans="11:33">
-      <c r="K59">
-        <v>110</v>
+      <c r="K59" t="s">
+        <v>344</v>
       </c>
       <c r="L59" t="s">
         <v>222</v>
@@ -7614,8 +8106,8 @@
       <c r="O59" t="s">
         <v>159</v>
       </c>
-      <c r="AC59">
-        <v>45</v>
+      <c r="AC59" t="s">
+        <v>290</v>
       </c>
       <c r="AD59" t="s">
         <v>74</v>
@@ -7631,8 +8123,8 @@
       </c>
     </row>
     <row r="60" spans="11:33">
-      <c r="K60">
-        <v>116</v>
+      <c r="K60" t="s">
+        <v>350</v>
       </c>
       <c r="L60" t="s">
         <v>223</v>
@@ -7646,8 +8138,8 @@
       <c r="O60" t="s">
         <v>159</v>
       </c>
-      <c r="AC60">
-        <v>50</v>
+      <c r="AC60" t="s">
+        <v>295</v>
       </c>
       <c r="AD60" t="s">
         <v>78</v>
@@ -7663,8 +8155,8 @@
       </c>
     </row>
     <row r="61" spans="11:33">
-      <c r="K61">
-        <v>120</v>
+      <c r="K61" t="s">
+        <v>354</v>
       </c>
       <c r="L61" t="s">
         <v>224</v>
@@ -7678,8 +8170,8 @@
       <c r="O61" t="s">
         <v>159</v>
       </c>
-      <c r="AC61">
-        <v>54</v>
+      <c r="AC61" t="s">
+        <v>299</v>
       </c>
       <c r="AD61" t="s">
         <v>82</v>
@@ -7695,8 +8187,8 @@
       </c>
     </row>
     <row r="62" spans="11:33">
-      <c r="K62">
-        <v>124</v>
+      <c r="K62" t="s">
+        <v>358</v>
       </c>
       <c r="L62" t="s">
         <v>225</v>
@@ -7710,8 +8202,8 @@
       <c r="O62" t="s">
         <v>159</v>
       </c>
-      <c r="AC62">
-        <v>58</v>
+      <c r="AC62" t="s">
+        <v>303</v>
       </c>
       <c r="AD62" t="s">
         <v>86</v>
@@ -7727,8 +8219,8 @@
       </c>
     </row>
     <row r="63" spans="11:33">
-      <c r="K63">
-        <v>128</v>
+      <c r="K63" t="s">
+        <v>362</v>
       </c>
       <c r="L63" t="s">
         <v>226</v>
@@ -7742,8 +8234,8 @@
       <c r="O63" t="s">
         <v>159</v>
       </c>
-      <c r="AC63">
-        <v>62</v>
+      <c r="AC63" t="s">
+        <v>307</v>
       </c>
       <c r="AD63" t="s">
         <v>90</v>
@@ -7759,8 +8251,8 @@
       </c>
     </row>
     <row r="64" spans="11:33">
-      <c r="K64">
-        <v>133</v>
+      <c r="K64" t="s">
+        <v>367</v>
       </c>
       <c r="L64" t="s">
         <v>227</v>
@@ -7774,8 +8266,8 @@
       <c r="O64" t="s">
         <v>159</v>
       </c>
-      <c r="AC64">
-        <v>66</v>
+      <c r="AC64" t="s">
+        <v>311</v>
       </c>
       <c r="AD64" t="s">
         <v>94</v>
@@ -7791,8 +8283,8 @@
       </c>
     </row>
     <row r="65" spans="11:33">
-      <c r="K65">
-        <v>137</v>
+      <c r="K65" t="s">
+        <v>371</v>
       </c>
       <c r="L65" t="s">
         <v>228</v>
@@ -7806,8 +8298,8 @@
       <c r="O65" t="s">
         <v>159</v>
       </c>
-      <c r="AC65">
-        <v>70</v>
+      <c r="AC65" t="s">
+        <v>315</v>
       </c>
       <c r="AD65" t="s">
         <v>98</v>
@@ -7823,8 +8315,8 @@
       </c>
     </row>
     <row r="66" spans="11:33">
-      <c r="K66">
-        <v>141</v>
+      <c r="K66" t="s">
+        <v>375</v>
       </c>
       <c r="L66" t="s">
         <v>229</v>
@@ -7838,8 +8330,8 @@
       <c r="O66" t="s">
         <v>159</v>
       </c>
-      <c r="AC66">
-        <v>74</v>
+      <c r="AC66" t="s">
+        <v>319</v>
       </c>
       <c r="AD66" t="s">
         <v>102</v>
@@ -7855,8 +8347,8 @@
       </c>
     </row>
     <row r="67" spans="11:33">
-      <c r="K67">
-        <v>145</v>
+      <c r="K67" t="s">
+        <v>379</v>
       </c>
       <c r="L67" t="s">
         <v>230</v>
@@ -7870,8 +8362,8 @@
       <c r="O67" t="s">
         <v>159</v>
       </c>
-      <c r="AC67">
-        <v>78</v>
+      <c r="AC67" t="s">
+        <v>323</v>
       </c>
       <c r="AD67" t="s">
         <v>106</v>
@@ -7887,8 +8379,8 @@
       </c>
     </row>
     <row r="68" spans="11:33">
-      <c r="K68">
-        <v>149</v>
+      <c r="K68" t="s">
+        <v>383</v>
       </c>
       <c r="L68" t="s">
         <v>231</v>
@@ -7904,8 +8396,8 @@
       </c>
     </row>
     <row r="69" spans="11:33">
-      <c r="K69">
-        <v>153</v>
+      <c r="K69" t="s">
+        <v>387</v>
       </c>
       <c r="L69" t="s">
         <v>232</v>
@@ -7921,8 +8413,8 @@
       </c>
     </row>
     <row r="70" spans="11:33">
-      <c r="K70">
-        <v>157</v>
+      <c r="K70" t="s">
+        <v>391</v>
       </c>
       <c r="L70" t="s">
         <v>233</v>
@@ -7938,8 +8430,8 @@
       </c>
     </row>
     <row r="71" spans="11:33">
-      <c r="K71">
-        <v>161</v>
+      <c r="K71" t="s">
+        <v>395</v>
       </c>
       <c r="L71" t="s">
         <v>234</v>
